--- a/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3.xlsx
+++ b/VersionRecords/Version3.1.3/版本Bug和特性计划及评审表v3.1.3.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version3.1.3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="业务组版本3.1.3 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
-    <sheet name="基础服务和架构组" sheetId="2" r:id="rId2"/>
+    <sheet name="基础服务和架构组3.1.3  新特性|Fix Bug" sheetId="2" r:id="rId2"/>
     <sheet name="数据修复" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1042" uniqueCount="218">
   <si>
     <t>No</t>
   </si>
@@ -728,19 +733,16 @@
   <si>
     <t>修正负责人</t>
   </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="32">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -814,113 +816,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -929,38 +827,32 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -981,198 +873,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1286,261 +992,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1601,7 +1071,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1703,66 +1173,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="52" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="常规 6" xfId="11"/>
-    <cellStyle name="注释" xfId="12" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="14" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="15" builtinId="11"/>
-    <cellStyle name="标题" xfId="16" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="17"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="20"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="46"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="47" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="49" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="50" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="51"/>
-    <cellStyle name="常规 3" xfId="52"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2094,13 +1551,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T231"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
@@ -2126,7 +1580,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +1639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="10" customFormat="1" ht="24" customHeight="1" spans="1:20">
+    <row r="2" spans="1:20" s="10" customFormat="1" ht="24" customHeight="1">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -2235,7 +1689,7 @@
       <c r="S2" s="48"/>
       <c r="T2" s="49"/>
     </row>
-    <row r="3" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A3" s="27">
         <v>2</v>
       </c>
@@ -2285,7 +1739,7 @@
       <c r="S3" s="48"/>
       <c r="T3" s="49"/>
     </row>
-    <row r="4" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A4" s="27">
         <v>3</v>
       </c>
@@ -2335,7 +1789,7 @@
       <c r="S4" s="48"/>
       <c r="T4" s="49"/>
     </row>
-    <row r="5" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A5" s="27">
         <v>4</v>
       </c>
@@ -2385,7 +1839,7 @@
       <c r="S5" s="48"/>
       <c r="T5" s="49"/>
     </row>
-    <row r="6" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A6" s="27">
         <v>5</v>
       </c>
@@ -2435,7 +1889,7 @@
       <c r="S6" s="48"/>
       <c r="T6" s="49"/>
     </row>
-    <row r="7" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A7" s="27">
         <v>6</v>
       </c>
@@ -2485,7 +1939,7 @@
       <c r="S7" s="48"/>
       <c r="T7" s="49"/>
     </row>
-    <row r="8" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -2535,7 +1989,7 @@
       <c r="S8" s="48"/>
       <c r="T8" s="49"/>
     </row>
-    <row r="9" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A9" s="27">
         <v>8</v>
       </c>
@@ -2585,7 +2039,7 @@
       <c r="S9" s="48"/>
       <c r="T9" s="49"/>
     </row>
-    <row r="10" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="10" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="27">
         <v>9</v>
       </c>
@@ -2635,7 +2089,7 @@
       <c r="S10" s="48"/>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A11" s="27">
         <v>10</v>
       </c>
@@ -2685,7 +2139,7 @@
       <c r="S11" s="48"/>
       <c r="T11" s="49"/>
     </row>
-    <row r="12" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A12" s="27">
         <v>11</v>
       </c>
@@ -2735,7 +2189,7 @@
       <c r="S12" s="48"/>
       <c r="T12" s="49"/>
     </row>
-    <row r="13" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A13" s="27">
         <v>12</v>
       </c>
@@ -2785,7 +2239,7 @@
       <c r="S13" s="48"/>
       <c r="T13" s="49"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="27">
         <v>13</v>
       </c>
@@ -2837,7 +2291,7 @@
       </c>
       <c r="T14" s="49"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A15" s="27">
         <v>14</v>
       </c>
@@ -2887,7 +2341,7 @@
       <c r="S15" s="48"/>
       <c r="T15" s="49"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -2937,7 +2391,7 @@
       <c r="S16" s="48"/>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="27">
         <v>16</v>
       </c>
@@ -2987,7 +2441,7 @@
       <c r="S17" s="48"/>
       <c r="T17" s="49"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A18" s="27">
         <v>17</v>
       </c>
@@ -3037,7 +2491,7 @@
       <c r="S18" s="48"/>
       <c r="T18" s="49"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="27">
         <v>18</v>
       </c>
@@ -3087,7 +2541,7 @@
       <c r="S19" s="48"/>
       <c r="T19" s="49"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A20" s="27">
         <v>19</v>
       </c>
@@ -3137,7 +2591,7 @@
       <c r="S20" s="48"/>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -3189,7 +2643,7 @@
       <c r="S21" s="48"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A22" s="27">
         <v>21</v>
       </c>
@@ -3241,7 +2695,7 @@
       <c r="S22" s="48"/>
       <c r="T22" s="49"/>
     </row>
-    <row r="23" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A23" s="27">
         <v>22</v>
       </c>
@@ -3293,7 +2747,7 @@
       <c r="S23" s="48"/>
       <c r="T23" s="49"/>
     </row>
-    <row r="24" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A24" s="27">
         <v>23</v>
       </c>
@@ -3345,7 +2799,7 @@
       <c r="S24" s="48"/>
       <c r="T24" s="49"/>
     </row>
-    <row r="25" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A25" s="27">
         <v>24</v>
       </c>
@@ -3395,7 +2849,7 @@
       <c r="S25" s="48"/>
       <c r="T25" s="49"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A26" s="27">
         <v>25</v>
       </c>
@@ -3445,7 +2899,7 @@
       <c r="S26" s="48"/>
       <c r="T26" s="49"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="27" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A27" s="27">
         <v>26</v>
       </c>
@@ -3495,7 +2949,7 @@
       <c r="S27" s="48"/>
       <c r="T27" s="49"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="28" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A28" s="27">
         <v>27</v>
       </c>
@@ -3543,7 +2997,7 @@
       <c r="S28" s="48"/>
       <c r="T28" s="49"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="29" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A29" s="27">
         <v>28</v>
       </c>
@@ -3591,7 +3045,7 @@
       <c r="S29" s="48"/>
       <c r="T29" s="49"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="30" spans="1:20" s="10" customFormat="1" ht="33">
       <c r="A30" s="27">
         <v>29</v>
       </c>
@@ -3639,7 +3093,7 @@
       <c r="S30" s="48"/>
       <c r="T30" s="49"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="31" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A31" s="27">
         <v>30</v>
       </c>
@@ -3691,7 +3145,7 @@
       <c r="S31" s="48"/>
       <c r="T31" s="49"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A32" s="27">
         <v>31</v>
       </c>
@@ -3743,7 +3197,7 @@
       <c r="S32" s="48"/>
       <c r="T32" s="49"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="33" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A33" s="27">
         <v>32</v>
       </c>
@@ -3795,7 +3249,7 @@
       <c r="S33" s="48"/>
       <c r="T33" s="49"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="34" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A34" s="27">
         <v>33</v>
       </c>
@@ -3847,7 +3301,7 @@
       <c r="S34" s="48"/>
       <c r="T34" s="49"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="35" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A35" s="27">
         <v>34</v>
       </c>
@@ -3901,7 +3355,7 @@
       </c>
       <c r="T35" s="49"/>
     </row>
-    <row r="36" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="36" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A36" s="27">
         <v>35</v>
       </c>
@@ -3953,7 +3407,7 @@
       <c r="S36" s="48"/>
       <c r="T36" s="49"/>
     </row>
-    <row r="37" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="37" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A37" s="27">
         <v>36</v>
       </c>
@@ -4005,7 +3459,7 @@
       <c r="S37" s="48"/>
       <c r="T37" s="49"/>
     </row>
-    <row r="38" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="38" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A38" s="27">
         <v>37</v>
       </c>
@@ -4057,7 +3511,7 @@
       <c r="S38" s="48"/>
       <c r="T38" s="49"/>
     </row>
-    <row r="39" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="39" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A39" s="27">
         <v>38</v>
       </c>
@@ -4109,7 +3563,7 @@
       <c r="S39" s="48"/>
       <c r="T39" s="49"/>
     </row>
-    <row r="40" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="40" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A40" s="27">
         <v>39</v>
       </c>
@@ -4161,7 +3615,7 @@
       <c r="S40" s="48"/>
       <c r="T40" s="49"/>
     </row>
-    <row r="41" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="41" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A41" s="27">
         <v>40</v>
       </c>
@@ -4213,7 +3667,7 @@
       <c r="S41" s="48"/>
       <c r="T41" s="49"/>
     </row>
-    <row r="42" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="42" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A42" s="27">
         <v>41</v>
       </c>
@@ -4265,7 +3719,7 @@
       <c r="S42" s="48"/>
       <c r="T42" s="49"/>
     </row>
-    <row r="43" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="43" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A43" s="27">
         <v>42</v>
       </c>
@@ -4319,7 +3773,7 @@
       </c>
       <c r="T43" s="49"/>
     </row>
-    <row r="44" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="44" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A44" s="27">
         <v>43</v>
       </c>
@@ -4371,7 +3825,7 @@
       <c r="S44" s="48"/>
       <c r="T44" s="49"/>
     </row>
-    <row r="45" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="45" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A45" s="27">
         <v>44</v>
       </c>
@@ -4423,7 +3877,7 @@
       <c r="S45" s="48"/>
       <c r="T45" s="49"/>
     </row>
-    <row r="46" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="46" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A46" s="27">
         <v>45</v>
       </c>
@@ -4475,7 +3929,7 @@
       <c r="S46" s="48"/>
       <c r="T46" s="49"/>
     </row>
-    <row r="47" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="47" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A47" s="27">
         <v>46</v>
       </c>
@@ -4527,7 +3981,7 @@
       <c r="S47" s="48"/>
       <c r="T47" s="49"/>
     </row>
-    <row r="48" s="10" customFormat="1" ht="19" customHeight="1" spans="1:20">
+    <row r="48" spans="1:20" s="10" customFormat="1" ht="18.95" customHeight="1">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -4579,7 +4033,7 @@
       <c r="S48" s="48"/>
       <c r="T48" s="49"/>
     </row>
-    <row r="49" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="49" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A49" s="27">
         <v>48</v>
       </c>
@@ -4627,7 +4081,7 @@
       <c r="S49" s="48"/>
       <c r="T49" s="49"/>
     </row>
-    <row r="50" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="50" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -4675,7 +4129,7 @@
       <c r="S50" s="48"/>
       <c r="T50" s="49"/>
     </row>
-    <row r="51" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="51" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A51" s="27">
         <v>50</v>
       </c>
@@ -4723,7 +4177,7 @@
       <c r="S51" s="48"/>
       <c r="T51" s="49"/>
     </row>
-    <row r="52" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="52" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -4771,7 +4225,7 @@
       <c r="S52" s="48"/>
       <c r="T52" s="49"/>
     </row>
-    <row r="53" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="53" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A53" s="27">
         <v>52</v>
       </c>
@@ -4819,7 +4273,7 @@
       <c r="S53" s="48"/>
       <c r="T53" s="49"/>
     </row>
-    <row r="54" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="54" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A54" s="27">
         <v>53</v>
       </c>
@@ -4865,7 +4319,7 @@
       <c r="S54" s="48"/>
       <c r="T54" s="49"/>
     </row>
-    <row r="55" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="55" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A55" s="27">
         <v>54</v>
       </c>
@@ -4915,7 +4369,7 @@
       <c r="S55" s="48"/>
       <c r="T55" s="49"/>
     </row>
-    <row r="56" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="56" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -4965,7 +4419,7 @@
       <c r="S56" s="48"/>
       <c r="T56" s="49"/>
     </row>
-    <row r="57" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="57" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A57" s="27">
         <v>56</v>
       </c>
@@ -5015,7 +4469,7 @@
       <c r="S57" s="48"/>
       <c r="T57" s="49"/>
     </row>
-    <row r="58" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="58" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A58" s="27">
         <v>57</v>
       </c>
@@ -5065,7 +4519,7 @@
       <c r="S58" s="48"/>
       <c r="T58" s="49"/>
     </row>
-    <row r="59" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="59" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A59" s="27">
         <v>58</v>
       </c>
@@ -5115,7 +4569,7 @@
       <c r="S59" s="48"/>
       <c r="T59" s="49"/>
     </row>
-    <row r="60" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="60" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A60" s="27">
         <v>59</v>
       </c>
@@ -5165,7 +4619,7 @@
       <c r="S60" s="48"/>
       <c r="T60" s="49"/>
     </row>
-    <row r="61" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="61" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A61" s="27">
         <v>60</v>
       </c>
@@ -5211,7 +4665,7 @@
       <c r="S61" s="48"/>
       <c r="T61" s="49"/>
     </row>
-    <row r="62" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="62" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A62" s="27">
         <v>61</v>
       </c>
@@ -5261,7 +4715,7 @@
       <c r="S62" s="48"/>
       <c r="T62" s="49"/>
     </row>
-    <row r="63" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="63" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A63" s="27">
         <v>62</v>
       </c>
@@ -5311,7 +4765,7 @@
       <c r="S63" s="48"/>
       <c r="T63" s="49"/>
     </row>
-    <row r="64" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="64" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A64" s="27">
         <v>63</v>
       </c>
@@ -5361,7 +4815,7 @@
       <c r="S64" s="48"/>
       <c r="T64" s="49"/>
     </row>
-    <row r="65" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="65" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A65" s="27">
         <v>64</v>
       </c>
@@ -5407,7 +4861,7 @@
       <c r="S65" s="48"/>
       <c r="T65" s="49"/>
     </row>
-    <row r="66" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="66" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A66" s="27">
         <v>65</v>
       </c>
@@ -5453,7 +4907,7 @@
       <c r="S66" s="48"/>
       <c r="T66" s="49"/>
     </row>
-    <row r="67" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="67" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A67" s="27">
         <v>66</v>
       </c>
@@ -5499,7 +4953,7 @@
       <c r="S67" s="48"/>
       <c r="T67" s="49"/>
     </row>
-    <row r="68" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="68" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A68" s="27"/>
       <c r="B68" s="54"/>
       <c r="C68" s="24"/>
@@ -5521,7 +4975,7 @@
       <c r="S68" s="48"/>
       <c r="T68" s="49"/>
     </row>
-    <row r="69" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="69" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A69" s="27"/>
       <c r="B69" s="54"/>
       <c r="C69" s="24"/>
@@ -5543,7 +4997,7 @@
       <c r="S69" s="48"/>
       <c r="T69" s="49"/>
     </row>
-    <row r="70" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="70" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A70" s="27"/>
       <c r="B70" s="54"/>
       <c r="C70" s="24"/>
@@ -5565,7 +5019,7 @@
       <c r="S70" s="48"/>
       <c r="T70" s="49"/>
     </row>
-    <row r="71" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="71" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A71" s="27"/>
       <c r="B71" s="54"/>
       <c r="C71" s="24"/>
@@ -5587,7 +5041,7 @@
       <c r="S71" s="48"/>
       <c r="T71" s="49"/>
     </row>
-    <row r="72" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="72" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A72" s="27"/>
       <c r="B72" s="54"/>
       <c r="C72" s="24"/>
@@ -5609,7 +5063,7 @@
       <c r="S72" s="48"/>
       <c r="T72" s="49"/>
     </row>
-    <row r="73" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="73" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A73" s="27"/>
       <c r="B73" s="54"/>
       <c r="C73" s="24"/>
@@ -5631,7 +5085,7 @@
       <c r="S73" s="48"/>
       <c r="T73" s="49"/>
     </row>
-    <row r="74" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="74" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A74" s="27"/>
       <c r="B74" s="54"/>
       <c r="C74" s="24"/>
@@ -5653,7 +5107,7 @@
       <c r="S74" s="48"/>
       <c r="T74" s="49"/>
     </row>
-    <row r="75" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="75" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A75" s="27"/>
       <c r="B75" s="54"/>
       <c r="C75" s="24"/>
@@ -5675,7 +5129,7 @@
       <c r="S75" s="48"/>
       <c r="T75" s="49"/>
     </row>
-    <row r="76" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="76" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A76" s="27"/>
       <c r="B76" s="54"/>
       <c r="C76" s="24"/>
@@ -5697,7 +5151,7 @@
       <c r="S76" s="48"/>
       <c r="T76" s="49"/>
     </row>
-    <row r="77" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="77" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A77" s="27"/>
       <c r="B77" s="54"/>
       <c r="C77" s="24"/>
@@ -5719,7 +5173,7 @@
       <c r="S77" s="48"/>
       <c r="T77" s="49"/>
     </row>
-    <row r="78" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="78" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A78" s="27"/>
       <c r="B78" s="54"/>
       <c r="C78" s="24"/>
@@ -5741,7 +5195,7 @@
       <c r="S78" s="48"/>
       <c r="T78" s="49"/>
     </row>
-    <row r="79" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="79" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A79" s="27"/>
       <c r="B79" s="54"/>
       <c r="C79" s="24"/>
@@ -5763,7 +5217,7 @@
       <c r="S79" s="48"/>
       <c r="T79" s="49"/>
     </row>
-    <row r="80" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="80" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A80" s="27"/>
       <c r="B80" s="54"/>
       <c r="C80" s="24"/>
@@ -5785,7 +5239,7 @@
       <c r="S80" s="48"/>
       <c r="T80" s="49"/>
     </row>
-    <row r="81" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="81" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A81" s="27"/>
       <c r="B81" s="54"/>
       <c r="C81" s="24"/>
@@ -5807,7 +5261,7 @@
       <c r="S81" s="48"/>
       <c r="T81" s="49"/>
     </row>
-    <row r="82" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="82" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A82" s="27"/>
       <c r="B82" s="54"/>
       <c r="C82" s="24"/>
@@ -5829,7 +5283,7 @@
       <c r="S82" s="48"/>
       <c r="T82" s="49"/>
     </row>
-    <row r="83" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="83" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A83" s="27"/>
       <c r="B83" s="54"/>
       <c r="C83" s="24"/>
@@ -5851,7 +5305,7 @@
       <c r="S83" s="48"/>
       <c r="T83" s="49"/>
     </row>
-    <row r="84" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="84" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A84" s="27"/>
       <c r="B84" s="54"/>
       <c r="C84" s="24"/>
@@ -5873,7 +5327,7 @@
       <c r="S84" s="48"/>
       <c r="T84" s="49"/>
     </row>
-    <row r="85" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="85" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A85" s="27"/>
       <c r="B85" s="54"/>
       <c r="C85" s="24"/>
@@ -5895,7 +5349,7 @@
       <c r="S85" s="48"/>
       <c r="T85" s="49"/>
     </row>
-    <row r="86" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="86" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A86" s="27"/>
       <c r="B86" s="54"/>
       <c r="C86" s="24"/>
@@ -5917,7 +5371,7 @@
       <c r="S86" s="48"/>
       <c r="T86" s="49"/>
     </row>
-    <row r="87" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="87" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A87" s="27"/>
       <c r="B87" s="54"/>
       <c r="C87" s="24"/>
@@ -5939,7 +5393,7 @@
       <c r="S87" s="48"/>
       <c r="T87" s="49"/>
     </row>
-    <row r="88" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="88" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A88" s="27"/>
       <c r="B88" s="54"/>
       <c r="C88" s="24"/>
@@ -5961,7 +5415,7 @@
       <c r="S88" s="48"/>
       <c r="T88" s="49"/>
     </row>
-    <row r="89" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="89" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A89" s="27"/>
       <c r="B89" s="54"/>
       <c r="C89" s="24"/>
@@ -5983,7 +5437,7 @@
       <c r="S89" s="48"/>
       <c r="T89" s="49"/>
     </row>
-    <row r="90" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="90" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A90" s="27"/>
       <c r="B90" s="54"/>
       <c r="C90" s="24"/>
@@ -6005,7 +5459,7 @@
       <c r="S90" s="48"/>
       <c r="T90" s="49"/>
     </row>
-    <row r="91" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="91" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A91" s="27"/>
       <c r="B91" s="54"/>
       <c r="C91" s="24"/>
@@ -6027,7 +5481,7 @@
       <c r="S91" s="48"/>
       <c r="T91" s="49"/>
     </row>
-    <row r="92" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="92" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A92" s="27"/>
       <c r="B92" s="54"/>
       <c r="C92" s="24"/>
@@ -6049,7 +5503,7 @@
       <c r="S92" s="48"/>
       <c r="T92" s="49"/>
     </row>
-    <row r="93" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="93" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A93" s="27"/>
       <c r="B93" s="54"/>
       <c r="C93" s="24"/>
@@ -6071,7 +5525,7 @@
       <c r="S93" s="48"/>
       <c r="T93" s="49"/>
     </row>
-    <row r="94" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="94" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A94" s="27"/>
       <c r="B94" s="54"/>
       <c r="C94" s="24"/>
@@ -6093,7 +5547,7 @@
       <c r="S94" s="48"/>
       <c r="T94" s="49"/>
     </row>
-    <row r="95" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="95" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A95" s="27"/>
       <c r="B95" s="54"/>
       <c r="C95" s="24"/>
@@ -6115,7 +5569,7 @@
       <c r="S95" s="48"/>
       <c r="T95" s="49"/>
     </row>
-    <row r="96" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="96" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A96" s="27"/>
       <c r="B96" s="54"/>
       <c r="C96" s="24"/>
@@ -6137,7 +5591,7 @@
       <c r="S96" s="48"/>
       <c r="T96" s="49"/>
     </row>
-    <row r="97" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="97" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A97" s="27"/>
       <c r="B97" s="54"/>
       <c r="C97" s="24"/>
@@ -6159,7 +5613,7 @@
       <c r="S97" s="48"/>
       <c r="T97" s="49"/>
     </row>
-    <row r="98" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="98" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A98" s="27"/>
       <c r="B98" s="54"/>
       <c r="C98" s="24"/>
@@ -6181,7 +5635,7 @@
       <c r="S98" s="48"/>
       <c r="T98" s="49"/>
     </row>
-    <row r="99" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="99" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A99" s="27"/>
       <c r="B99" s="54"/>
       <c r="C99" s="24"/>
@@ -6203,7 +5657,7 @@
       <c r="S99" s="48"/>
       <c r="T99" s="49"/>
     </row>
-    <row r="100" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="100" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A100" s="27"/>
       <c r="B100" s="54"/>
       <c r="C100" s="24"/>
@@ -6225,7 +5679,7 @@
       <c r="S100" s="48"/>
       <c r="T100" s="49"/>
     </row>
-    <row r="101" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="101" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A101" s="27"/>
       <c r="B101" s="54"/>
       <c r="C101" s="24"/>
@@ -6247,7 +5701,7 @@
       <c r="S101" s="48"/>
       <c r="T101" s="49"/>
     </row>
-    <row r="102" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="102" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A102" s="27"/>
       <c r="B102" s="54"/>
       <c r="C102" s="24"/>
@@ -6269,7 +5723,7 @@
       <c r="S102" s="48"/>
       <c r="T102" s="49"/>
     </row>
-    <row r="103" s="10" customFormat="1" ht="23.25" customHeight="1" spans="1:20">
+    <row r="103" spans="1:20" s="10" customFormat="1" ht="23.25" customHeight="1">
       <c r="A103" s="27"/>
       <c r="B103" s="54"/>
       <c r="C103" s="24"/>
@@ -6291,7 +5745,7 @@
       <c r="S103" s="48"/>
       <c r="T103" s="49"/>
     </row>
-    <row r="104" ht="16.5" spans="1:19">
+    <row r="104" spans="1:20" ht="16.5">
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
@@ -6312,7 +5766,7 @@
       <c r="R104" s="33"/>
       <c r="S104" s="34"/>
     </row>
-    <row r="105" ht="16.5" spans="1:19">
+    <row r="105" spans="1:20" ht="16.5">
       <c r="A105" s="33"/>
       <c r="B105" s="34"/>
       <c r="C105" s="33"/>
@@ -6333,7 +5787,7 @@
       <c r="R105" s="33"/>
       <c r="S105" s="34"/>
     </row>
-    <row r="106" ht="16.5" spans="1:19">
+    <row r="106" spans="1:20" ht="16.5">
       <c r="A106" s="33"/>
       <c r="B106" s="34"/>
       <c r="C106" s="33"/>
@@ -6354,7 +5808,7 @@
       <c r="R106" s="33"/>
       <c r="S106" s="34"/>
     </row>
-    <row r="107" ht="16.5" spans="1:19">
+    <row r="107" spans="1:20" ht="16.5">
       <c r="A107" s="33"/>
       <c r="B107" s="34"/>
       <c r="C107" s="33"/>
@@ -6375,7 +5829,7 @@
       <c r="R107" s="33"/>
       <c r="S107" s="34"/>
     </row>
-    <row r="108" ht="16.5" spans="1:19">
+    <row r="108" spans="1:20" ht="16.5">
       <c r="A108" s="33"/>
       <c r="B108" s="34"/>
       <c r="C108" s="33"/>
@@ -6396,7 +5850,7 @@
       <c r="R108" s="33"/>
       <c r="S108" s="34"/>
     </row>
-    <row r="109" ht="16.5" spans="1:19">
+    <row r="109" spans="1:20" ht="16.5">
       <c r="A109" s="33"/>
       <c r="B109" s="34"/>
       <c r="C109" s="33"/>
@@ -6417,7 +5871,7 @@
       <c r="R109" s="33"/>
       <c r="S109" s="34"/>
     </row>
-    <row r="110" ht="16.5" spans="1:19">
+    <row r="110" spans="1:20" ht="16.5">
       <c r="A110" s="33"/>
       <c r="B110" s="34"/>
       <c r="C110" s="33"/>
@@ -6438,7 +5892,7 @@
       <c r="R110" s="33"/>
       <c r="S110" s="34"/>
     </row>
-    <row r="111" ht="16.5" spans="1:19">
+    <row r="111" spans="1:20" ht="16.5">
       <c r="A111" s="33"/>
       <c r="B111" s="34"/>
       <c r="C111" s="33"/>
@@ -6459,7 +5913,7 @@
       <c r="R111" s="33"/>
       <c r="S111" s="34"/>
     </row>
-    <row r="112" ht="16.5" spans="1:19">
+    <row r="112" spans="1:20" ht="16.5">
       <c r="A112" s="33"/>
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
@@ -6480,7 +5934,7 @@
       <c r="R112" s="33"/>
       <c r="S112" s="34"/>
     </row>
-    <row r="113" ht="16.5" spans="1:19">
+    <row r="113" spans="1:19" ht="16.5">
       <c r="A113" s="33"/>
       <c r="B113" s="34"/>
       <c r="C113" s="33"/>
@@ -6501,7 +5955,7 @@
       <c r="R113" s="33"/>
       <c r="S113" s="34"/>
     </row>
-    <row r="114" ht="16.5" spans="1:19">
+    <row r="114" spans="1:19" ht="16.5">
       <c r="A114" s="33"/>
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
@@ -6522,7 +5976,7 @@
       <c r="R114" s="33"/>
       <c r="S114" s="34"/>
     </row>
-    <row r="115" ht="16.5" spans="1:19">
+    <row r="115" spans="1:19" ht="16.5">
       <c r="A115" s="33"/>
       <c r="B115" s="34"/>
       <c r="C115" s="33"/>
@@ -6543,7 +5997,7 @@
       <c r="R115" s="33"/>
       <c r="S115" s="34"/>
     </row>
-    <row r="116" ht="16.5" spans="1:19">
+    <row r="116" spans="1:19" ht="16.5">
       <c r="A116" s="33"/>
       <c r="B116" s="34"/>
       <c r="C116" s="33"/>
@@ -6564,7 +6018,7 @@
       <c r="R116" s="33"/>
       <c r="S116" s="34"/>
     </row>
-    <row r="117" ht="16.5" spans="1:19">
+    <row r="117" spans="1:19" ht="16.5">
       <c r="A117" s="33"/>
       <c r="B117" s="34"/>
       <c r="C117" s="33"/>
@@ -6585,7 +6039,7 @@
       <c r="R117" s="33"/>
       <c r="S117" s="34"/>
     </row>
-    <row r="118" ht="16.5" spans="1:19">
+    <row r="118" spans="1:19" ht="16.5">
       <c r="A118" s="33"/>
       <c r="B118" s="34"/>
       <c r="C118" s="33"/>
@@ -6606,7 +6060,7 @@
       <c r="R118" s="33"/>
       <c r="S118" s="34"/>
     </row>
-    <row r="119" ht="16.5" spans="1:19">
+    <row r="119" spans="1:19" ht="16.5">
       <c r="A119" s="33"/>
       <c r="B119" s="34"/>
       <c r="C119" s="33"/>
@@ -6627,7 +6081,7 @@
       <c r="R119" s="33"/>
       <c r="S119" s="34"/>
     </row>
-    <row r="120" ht="16.5" spans="1:19">
+    <row r="120" spans="1:19" ht="16.5">
       <c r="A120" s="33"/>
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
@@ -6648,7 +6102,7 @@
       <c r="R120" s="33"/>
       <c r="S120" s="34"/>
     </row>
-    <row r="121" ht="16.5" spans="1:19">
+    <row r="121" spans="1:19" ht="16.5">
       <c r="A121" s="33"/>
       <c r="B121" s="34"/>
       <c r="C121" s="33"/>
@@ -6669,7 +6123,7 @@
       <c r="R121" s="33"/>
       <c r="S121" s="34"/>
     </row>
-    <row r="122" ht="16.5" spans="1:19">
+    <row r="122" spans="1:19" ht="16.5">
       <c r="A122" s="33"/>
       <c r="B122" s="34"/>
       <c r="C122" s="33"/>
@@ -6690,7 +6144,7 @@
       <c r="R122" s="33"/>
       <c r="S122" s="34"/>
     </row>
-    <row r="123" ht="16.5" spans="1:19">
+    <row r="123" spans="1:19" ht="16.5">
       <c r="A123" s="33"/>
       <c r="B123" s="34"/>
       <c r="C123" s="33"/>
@@ -6711,7 +6165,7 @@
       <c r="R123" s="33"/>
       <c r="S123" s="34"/>
     </row>
-    <row r="124" ht="16.5" spans="1:19">
+    <row r="124" spans="1:19" ht="16.5">
       <c r="A124" s="33"/>
       <c r="B124" s="34"/>
       <c r="C124" s="33"/>
@@ -6732,7 +6186,7 @@
       <c r="R124" s="33"/>
       <c r="S124" s="34"/>
     </row>
-    <row r="125" ht="16.5" spans="1:19">
+    <row r="125" spans="1:19" ht="16.5">
       <c r="A125" s="33"/>
       <c r="B125" s="34"/>
       <c r="C125" s="33"/>
@@ -6753,7 +6207,7 @@
       <c r="R125" s="33"/>
       <c r="S125" s="34"/>
     </row>
-    <row r="126" ht="16.5" spans="1:19">
+    <row r="126" spans="1:19" ht="16.5">
       <c r="A126" s="33"/>
       <c r="B126" s="34"/>
       <c r="C126" s="33"/>
@@ -6774,7 +6228,7 @@
       <c r="R126" s="33"/>
       <c r="S126" s="34"/>
     </row>
-    <row r="127" ht="16.5" spans="1:19">
+    <row r="127" spans="1:19" ht="16.5">
       <c r="A127" s="33"/>
       <c r="B127" s="34"/>
       <c r="C127" s="33"/>
@@ -6795,7 +6249,7 @@
       <c r="R127" s="33"/>
       <c r="S127" s="34"/>
     </row>
-    <row r="128" ht="16.5" spans="1:19">
+    <row r="128" spans="1:19" ht="16.5">
       <c r="A128" s="33"/>
       <c r="B128" s="34"/>
       <c r="C128" s="33"/>
@@ -6816,7 +6270,7 @@
       <c r="R128" s="33"/>
       <c r="S128" s="34"/>
     </row>
-    <row r="129" ht="16.5" spans="1:19">
+    <row r="129" spans="1:19" ht="16.5">
       <c r="A129" s="33"/>
       <c r="B129" s="34"/>
       <c r="C129" s="33"/>
@@ -6837,7 +6291,7 @@
       <c r="R129" s="33"/>
       <c r="S129" s="34"/>
     </row>
-    <row r="130" ht="16.5" spans="1:19">
+    <row r="130" spans="1:19" ht="16.5">
       <c r="A130" s="33"/>
       <c r="B130" s="34"/>
       <c r="C130" s="33"/>
@@ -6858,7 +6312,7 @@
       <c r="R130" s="33"/>
       <c r="S130" s="34"/>
     </row>
-    <row r="131" ht="16.5" spans="1:19">
+    <row r="131" spans="1:19" ht="16.5">
       <c r="A131" s="33"/>
       <c r="B131" s="34"/>
       <c r="C131" s="33"/>
@@ -6879,7 +6333,7 @@
       <c r="R131" s="33"/>
       <c r="S131" s="34"/>
     </row>
-    <row r="132" ht="16.5" spans="1:19">
+    <row r="132" spans="1:19" ht="16.5">
       <c r="A132" s="33"/>
       <c r="B132" s="34"/>
       <c r="C132" s="33"/>
@@ -6900,7 +6354,7 @@
       <c r="R132" s="33"/>
       <c r="S132" s="34"/>
     </row>
-    <row r="133" ht="16.5" spans="1:19">
+    <row r="133" spans="1:19" ht="16.5">
       <c r="A133" s="33"/>
       <c r="B133" s="34"/>
       <c r="C133" s="33"/>
@@ -6921,7 +6375,7 @@
       <c r="R133" s="33"/>
       <c r="S133" s="34"/>
     </row>
-    <row r="134" ht="16.5" spans="1:19">
+    <row r="134" spans="1:19" ht="16.5">
       <c r="A134" s="33"/>
       <c r="B134" s="34"/>
       <c r="C134" s="33"/>
@@ -6942,7 +6396,7 @@
       <c r="R134" s="33"/>
       <c r="S134" s="34"/>
     </row>
-    <row r="135" ht="16.5" spans="1:19">
+    <row r="135" spans="1:19" ht="16.5">
       <c r="A135" s="33"/>
       <c r="B135" s="34"/>
       <c r="C135" s="33"/>
@@ -6963,7 +6417,7 @@
       <c r="R135" s="33"/>
       <c r="S135" s="34"/>
     </row>
-    <row r="136" ht="16.5" spans="1:19">
+    <row r="136" spans="1:19" ht="16.5">
       <c r="A136" s="33"/>
       <c r="B136" s="34"/>
       <c r="C136" s="33"/>
@@ -8876,19 +8330,18 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:T67"/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8915,7 +8368,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:16384" s="8" customFormat="1" ht="27">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -8974,7 +8427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="2" spans="1:16384" s="9" customFormat="1" ht="16.5">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -9018,7 +8471,7 @@
       <c r="S2" s="44"/>
       <c r="T2" s="45"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="3" spans="1:16384" s="9" customFormat="1" ht="16.5">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -9062,7 +8515,7 @@
       <c r="S3" s="44"/>
       <c r="T3" s="45"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="4" spans="1:16384" s="9" customFormat="1" ht="16.5">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -9106,7 +8559,7 @@
       <c r="S4" s="44"/>
       <c r="T4" s="45"/>
     </row>
-    <row r="5" s="10" customFormat="1" ht="16.5" spans="1:16384">
+    <row r="5" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -25514,7 +24967,7 @@
       <c r="XFC5" s="53"/>
       <c r="XFD5" s="53"/>
     </row>
-    <row r="6" s="10" customFormat="1" ht="16.5" spans="1:16384">
+    <row r="6" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -41922,7 +41375,7 @@
       <c r="XFC6" s="53"/>
       <c r="XFD6" s="53"/>
     </row>
-    <row r="7" s="10" customFormat="1" ht="16.5" spans="1:16384">
+    <row r="7" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -58330,7 +57783,7 @@
       <c r="XFC7" s="53"/>
       <c r="XFD7" s="53"/>
     </row>
-    <row r="8" s="10" customFormat="1" ht="20.25" customHeight="1" spans="1:20">
+    <row r="8" spans="1:16384" s="10" customFormat="1" ht="20.25" customHeight="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -58347,13 +57800,13 @@
         <v>22</v>
       </c>
       <c r="F8" s="25">
-        <v>42508.6458333333</v>
+        <v>42508.645833333299</v>
       </c>
       <c r="G8" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="25">
-        <v>42508.6458333333</v>
+        <v>42508.645833333299</v>
       </c>
       <c r="I8" s="24"/>
       <c r="J8" s="24" t="s">
@@ -58374,7 +57827,7 @@
       </c>
       <c r="T8" s="49"/>
     </row>
-    <row r="9" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="9" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -58391,13 +57844,13 @@
         <v>22</v>
       </c>
       <c r="F9" s="25">
-        <v>42508.5833333333</v>
+        <v>42508.583333333299</v>
       </c>
       <c r="G9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="25">
-        <v>42508.5833333333</v>
+        <v>42508.583333333299</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24" t="s">
@@ -58418,7 +57871,7 @@
       </c>
       <c r="T9" s="49"/>
     </row>
-    <row r="10" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="10" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -58462,7 +57915,7 @@
       </c>
       <c r="T10" s="49"/>
     </row>
-    <row r="11" s="11" customFormat="1" ht="33" spans="1:20">
+    <row r="11" spans="1:16384" s="11" customFormat="1" ht="33">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -58506,7 +57959,7 @@
       </c>
       <c r="T11" s="51"/>
     </row>
-    <row r="12" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="12" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -58550,7 +58003,7 @@
       </c>
       <c r="T12" s="49"/>
     </row>
-    <row r="13" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="13" spans="1:16384" s="10" customFormat="1" ht="33">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -58594,7 +58047,7 @@
       </c>
       <c r="T13" s="49"/>
     </row>
-    <row r="14" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="14" spans="1:16384" s="10" customFormat="1" ht="33">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -58638,7 +58091,7 @@
       </c>
       <c r="T14" s="49"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="15" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -58682,7 +58135,7 @@
       </c>
       <c r="T15" s="49"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="16" spans="1:16384" s="10" customFormat="1" ht="16.5">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -58726,7 +58179,7 @@
       </c>
       <c r="T16" s="49"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -58770,7 +58223,7 @@
       </c>
       <c r="T17" s="49"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -58814,7 +58267,7 @@
       </c>
       <c r="T18" s="49"/>
     </row>
-    <row r="19" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -58858,7 +58311,7 @@
       </c>
       <c r="T19" s="49"/>
     </row>
-    <row r="20" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -58902,7 +58355,7 @@
       </c>
       <c r="T20" s="49"/>
     </row>
-    <row r="21" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -58946,7 +58399,7 @@
       </c>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -58990,7 +58443,7 @@
       </c>
       <c r="T22" s="51"/>
     </row>
-    <row r="23" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -59034,7 +58487,7 @@
       </c>
       <c r="T23" s="51"/>
     </row>
-    <row r="24" s="11" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -59078,7 +58531,7 @@
       </c>
       <c r="T24" s="51"/>
     </row>
-    <row r="25" s="11" customFormat="1" ht="33" spans="1:20">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="33">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -59122,7 +58575,7 @@
       </c>
       <c r="T25" s="51"/>
     </row>
-    <row r="26" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -59139,13 +58592,13 @@
         <v>22</v>
       </c>
       <c r="F26" s="25">
-        <v>42496.7708333333</v>
+        <v>42496.770833333299</v>
       </c>
       <c r="G26" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H26" s="25">
-        <v>42496.7708333333</v>
+        <v>42496.770833333299</v>
       </c>
       <c r="I26" s="24"/>
       <c r="J26" s="24" t="s">
@@ -59166,7 +58619,7 @@
       </c>
       <c r="T26" s="49"/>
     </row>
-    <row r="27" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -59210,7 +58663,7 @@
       </c>
       <c r="T27" s="49"/>
     </row>
-    <row r="28" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -59254,7 +58707,7 @@
       </c>
       <c r="T28" s="49"/>
     </row>
-    <row r="29" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -59298,7 +58751,7 @@
       </c>
       <c r="T29" s="49"/>
     </row>
-    <row r="30" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -59342,7 +58795,7 @@
       </c>
       <c r="T30" s="49"/>
     </row>
-    <row r="31" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -59359,13 +58812,13 @@
         <v>22</v>
       </c>
       <c r="F31" s="25">
-        <v>42508.6458333333</v>
+        <v>42508.645833333299</v>
       </c>
       <c r="G31" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H31" s="25">
-        <v>42508.6458333333</v>
+        <v>42508.645833333299</v>
       </c>
       <c r="I31" s="24"/>
       <c r="J31" s="24" t="s">
@@ -59386,7 +58839,7 @@
       </c>
       <c r="T31" s="49"/>
     </row>
-    <row r="32" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -59403,13 +58856,13 @@
         <v>22</v>
       </c>
       <c r="F32" s="25">
-        <v>42508.5833333333</v>
+        <v>42508.583333333299</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>22</v>
       </c>
       <c r="H32" s="25">
-        <v>42508.5833333333</v>
+        <v>42508.583333333299</v>
       </c>
       <c r="I32" s="24"/>
       <c r="J32" s="24" t="s">
@@ -59430,7 +58883,7 @@
       </c>
       <c r="T32" s="49"/>
     </row>
-    <row r="33" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:1025" s="10" customFormat="1" ht="16.5">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -59474,7 +58927,7 @@
       </c>
       <c r="T33" s="49"/>
     </row>
-    <row r="34" s="10" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:1025" s="10" customFormat="1" ht="16.5">
       <c r="A34" s="16">
         <v>33</v>
       </c>
@@ -59518,7 +58971,7 @@
       </c>
       <c r="T34" s="49"/>
     </row>
-    <row r="35" s="10" customFormat="1" ht="33" spans="1:20">
+    <row r="35" spans="1:1025" s="10" customFormat="1" ht="33">
       <c r="A35" s="16">
         <v>34</v>
       </c>
@@ -59562,141 +59015,3288 @@
       </c>
       <c r="T35" s="49"/>
     </row>
-    <row r="36" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A36" s="27"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="25"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="49"/>
+    <row r="36" spans="1:1025" s="62" customFormat="1" ht="16.5">
+      <c r="A36" s="16">
+        <v>35</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F36" s="57">
+        <v>42514</v>
+      </c>
+      <c r="G36" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="57">
+        <v>42514</v>
+      </c>
+      <c r="I36" s="56"/>
+      <c r="J36" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L36" s="56"/>
+      <c r="M36" s="58"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="58"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S36" s="60"/>
+      <c r="T36" s="61"/>
     </row>
-    <row r="37" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A37" s="27"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="49"/>
+    <row r="37" spans="1:1025" s="62" customFormat="1" ht="16.5">
+      <c r="A37" s="16">
+        <v>36</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="57">
+        <v>42513</v>
+      </c>
+      <c r="G37" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="57">
+        <v>42513</v>
+      </c>
+      <c r="I37" s="56"/>
+      <c r="J37" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="56"/>
+      <c r="M37" s="58"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="58"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="59"/>
+      <c r="R37" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S37" s="60"/>
+      <c r="T37" s="61"/>
     </row>
-    <row r="38" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A38" s="27"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="49"/>
+    <row r="38" spans="1:1025" s="62" customFormat="1" ht="16.5">
+      <c r="A38" s="16">
+        <v>37</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F38" s="57">
+        <v>42513</v>
+      </c>
+      <c r="G38" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="57">
+        <v>42513</v>
+      </c>
+      <c r="I38" s="56"/>
+      <c r="J38" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K38" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="56"/>
+      <c r="M38" s="58"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="58"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S38" s="60"/>
+      <c r="T38" s="61"/>
     </row>
-    <row r="39" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A39" s="27"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
+    <row r="39" spans="1:1025" customFormat="1" ht="16.5">
+      <c r="A39" s="16">
+        <v>38</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F39" s="57">
+        <v>42513</v>
+      </c>
+      <c r="G39" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H39" s="57">
+        <v>42513</v>
+      </c>
+      <c r="I39" s="56"/>
+      <c r="J39" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K39" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="56"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="58"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S39" s="60"/>
+      <c r="T39" s="61"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
+      <c r="BT39" s="1"/>
+      <c r="BU39" s="1"/>
+      <c r="BV39" s="1"/>
+      <c r="BW39" s="1"/>
+      <c r="BX39" s="1"/>
+      <c r="BY39" s="1"/>
+      <c r="BZ39" s="1"/>
+      <c r="CA39" s="1"/>
+      <c r="CB39" s="1"/>
+      <c r="CC39" s="1"/>
+      <c r="CD39" s="1"/>
+      <c r="CE39" s="1"/>
+      <c r="CF39" s="1"/>
+      <c r="CG39" s="1"/>
+      <c r="CH39" s="1"/>
+      <c r="CI39" s="1"/>
+      <c r="CJ39" s="1"/>
+      <c r="CK39" s="1"/>
+      <c r="CL39" s="1"/>
+      <c r="CM39" s="1"/>
+      <c r="CN39" s="1"/>
+      <c r="CO39" s="1"/>
+      <c r="CP39" s="1"/>
+      <c r="CQ39" s="1"/>
+      <c r="CR39" s="1"/>
+      <c r="CS39" s="1"/>
+      <c r="CT39" s="1"/>
+      <c r="CU39" s="1"/>
+      <c r="CV39" s="1"/>
+      <c r="CW39" s="1"/>
+      <c r="CX39" s="1"/>
+      <c r="CY39" s="1"/>
+      <c r="CZ39" s="1"/>
+      <c r="DA39" s="1"/>
+      <c r="DB39" s="1"/>
+      <c r="DC39" s="1"/>
+      <c r="DD39" s="1"/>
+      <c r="DE39" s="1"/>
+      <c r="DF39" s="1"/>
+      <c r="DG39" s="1"/>
+      <c r="DH39" s="1"/>
+      <c r="DI39" s="1"/>
+      <c r="DJ39" s="1"/>
+      <c r="DK39" s="1"/>
+      <c r="DL39" s="1"/>
+      <c r="DM39" s="1"/>
+      <c r="DN39" s="1"/>
+      <c r="DO39" s="1"/>
+      <c r="DP39" s="1"/>
+      <c r="DQ39" s="1"/>
+      <c r="DR39" s="1"/>
+      <c r="DS39" s="1"/>
+      <c r="DT39" s="1"/>
+      <c r="DU39" s="1"/>
+      <c r="DV39" s="1"/>
+      <c r="DW39" s="1"/>
+      <c r="DX39" s="1"/>
+      <c r="DY39" s="1"/>
+      <c r="DZ39" s="1"/>
+      <c r="EA39" s="1"/>
+      <c r="EB39" s="1"/>
+      <c r="EC39" s="1"/>
+      <c r="ED39" s="1"/>
+      <c r="EE39" s="1"/>
+      <c r="EF39" s="1"/>
+      <c r="EG39" s="1"/>
+      <c r="EH39" s="1"/>
+      <c r="EI39" s="1"/>
+      <c r="EJ39" s="1"/>
+      <c r="EK39" s="1"/>
+      <c r="EL39" s="1"/>
+      <c r="EM39" s="1"/>
+      <c r="EN39" s="1"/>
+      <c r="EO39" s="1"/>
+      <c r="EP39" s="1"/>
+      <c r="EQ39" s="1"/>
+      <c r="ER39" s="1"/>
+      <c r="ES39" s="1"/>
+      <c r="ET39" s="1"/>
+      <c r="EU39" s="1"/>
+      <c r="EV39" s="1"/>
+      <c r="EW39" s="1"/>
+      <c r="EX39" s="1"/>
+      <c r="EY39" s="1"/>
+      <c r="EZ39" s="1"/>
+      <c r="FA39" s="1"/>
+      <c r="FB39" s="1"/>
+      <c r="FC39" s="1"/>
+      <c r="FD39" s="1"/>
+      <c r="FE39" s="1"/>
+      <c r="FF39" s="1"/>
+      <c r="FG39" s="1"/>
+      <c r="FH39" s="1"/>
+      <c r="FI39" s="1"/>
+      <c r="FJ39" s="1"/>
+      <c r="FK39" s="1"/>
+      <c r="FL39" s="1"/>
+      <c r="FM39" s="1"/>
+      <c r="FN39" s="1"/>
+      <c r="FO39" s="1"/>
+      <c r="FP39" s="1"/>
+      <c r="FQ39" s="1"/>
+      <c r="FR39" s="1"/>
+      <c r="FS39" s="1"/>
+      <c r="FT39" s="1"/>
+      <c r="FU39" s="1"/>
+      <c r="FV39" s="1"/>
+      <c r="FW39" s="1"/>
+      <c r="FX39" s="1"/>
+      <c r="FY39" s="1"/>
+      <c r="FZ39" s="1"/>
+      <c r="GA39" s="1"/>
+      <c r="GB39" s="1"/>
+      <c r="GC39" s="1"/>
+      <c r="GD39" s="1"/>
+      <c r="GE39" s="1"/>
+      <c r="GF39" s="1"/>
+      <c r="GG39" s="1"/>
+      <c r="GH39" s="1"/>
+      <c r="GI39" s="1"/>
+      <c r="GJ39" s="1"/>
+      <c r="GK39" s="1"/>
+      <c r="GL39" s="1"/>
+      <c r="GM39" s="1"/>
+      <c r="GN39" s="1"/>
+      <c r="GO39" s="1"/>
+      <c r="GP39" s="1"/>
+      <c r="GQ39" s="1"/>
+      <c r="GR39" s="1"/>
+      <c r="GS39" s="1"/>
+      <c r="GT39" s="1"/>
+      <c r="GU39" s="1"/>
+      <c r="GV39" s="1"/>
+      <c r="GW39" s="1"/>
+      <c r="GX39" s="1"/>
+      <c r="GY39" s="1"/>
+      <c r="GZ39" s="1"/>
+      <c r="HA39" s="1"/>
+      <c r="HB39" s="1"/>
+      <c r="HC39" s="1"/>
+      <c r="HD39" s="1"/>
+      <c r="HE39" s="1"/>
+      <c r="HF39" s="1"/>
+      <c r="HG39" s="1"/>
+      <c r="HH39" s="1"/>
+      <c r="HI39" s="1"/>
+      <c r="HJ39" s="1"/>
+      <c r="HK39" s="1"/>
+      <c r="HL39" s="1"/>
+      <c r="HM39" s="1"/>
+      <c r="HN39" s="1"/>
+      <c r="HO39" s="1"/>
+      <c r="HP39" s="1"/>
+      <c r="HQ39" s="1"/>
+      <c r="HR39" s="1"/>
+      <c r="HS39" s="1"/>
+      <c r="HT39" s="1"/>
+      <c r="HU39" s="1"/>
+      <c r="HV39" s="1"/>
+      <c r="HW39" s="1"/>
+      <c r="HX39" s="1"/>
+      <c r="HY39" s="1"/>
+      <c r="HZ39" s="1"/>
+      <c r="IA39" s="1"/>
+      <c r="IB39" s="1"/>
+      <c r="IC39" s="1"/>
+      <c r="ID39" s="1"/>
+      <c r="IE39" s="1"/>
+      <c r="IF39" s="1"/>
+      <c r="IG39" s="1"/>
+      <c r="IH39" s="1"/>
+      <c r="II39" s="1"/>
+      <c r="IJ39" s="1"/>
+      <c r="IK39" s="1"/>
+      <c r="IL39" s="1"/>
+      <c r="IM39" s="1"/>
+      <c r="IN39" s="1"/>
+      <c r="IO39" s="1"/>
+      <c r="IP39" s="1"/>
+      <c r="IQ39" s="1"/>
+      <c r="IR39" s="1"/>
+      <c r="IS39" s="1"/>
+      <c r="IT39" s="1"/>
+      <c r="IU39" s="1"/>
+      <c r="IV39" s="1"/>
+      <c r="IW39" s="1"/>
+      <c r="IX39" s="1"/>
+      <c r="IY39" s="1"/>
+      <c r="IZ39" s="1"/>
+      <c r="JA39" s="1"/>
+      <c r="JB39" s="1"/>
+      <c r="JC39" s="1"/>
+      <c r="JD39" s="1"/>
+      <c r="JE39" s="1"/>
+      <c r="JF39" s="1"/>
+      <c r="JG39" s="1"/>
+      <c r="JH39" s="1"/>
+      <c r="JI39" s="1"/>
+      <c r="JJ39" s="1"/>
+      <c r="JK39" s="1"/>
+      <c r="JL39" s="1"/>
+      <c r="JM39" s="1"/>
+      <c r="JN39" s="1"/>
+      <c r="JO39" s="1"/>
+      <c r="JP39" s="1"/>
+      <c r="JQ39" s="1"/>
+      <c r="JR39" s="1"/>
+      <c r="JS39" s="1"/>
+      <c r="JT39" s="1"/>
+      <c r="JU39" s="1"/>
+      <c r="JV39" s="1"/>
+      <c r="JW39" s="1"/>
+      <c r="JX39" s="1"/>
+      <c r="JY39" s="1"/>
+      <c r="JZ39" s="1"/>
+      <c r="KA39" s="1"/>
+      <c r="KB39" s="1"/>
+      <c r="KC39" s="1"/>
+      <c r="KD39" s="1"/>
+      <c r="KE39" s="1"/>
+      <c r="KF39" s="1"/>
+      <c r="KG39" s="1"/>
+      <c r="KH39" s="1"/>
+      <c r="KI39" s="1"/>
+      <c r="KJ39" s="1"/>
+      <c r="KK39" s="1"/>
+      <c r="KL39" s="1"/>
+      <c r="KM39" s="1"/>
+      <c r="KN39" s="1"/>
+      <c r="KO39" s="1"/>
+      <c r="KP39" s="1"/>
+      <c r="KQ39" s="1"/>
+      <c r="KR39" s="1"/>
+      <c r="KS39" s="1"/>
+      <c r="KT39" s="1"/>
+      <c r="KU39" s="1"/>
+      <c r="KV39" s="1"/>
+      <c r="KW39" s="1"/>
+      <c r="KX39" s="1"/>
+      <c r="KY39" s="1"/>
+      <c r="KZ39" s="1"/>
+      <c r="LA39" s="1"/>
+      <c r="LB39" s="1"/>
+      <c r="LC39" s="1"/>
+      <c r="LD39" s="1"/>
+      <c r="LE39" s="1"/>
+      <c r="LF39" s="1"/>
+      <c r="LG39" s="1"/>
+      <c r="LH39" s="1"/>
+      <c r="LI39" s="1"/>
+      <c r="LJ39" s="1"/>
+      <c r="LK39" s="1"/>
+      <c r="LL39" s="1"/>
+      <c r="LM39" s="1"/>
+      <c r="LN39" s="1"/>
+      <c r="LO39" s="1"/>
+      <c r="LP39" s="1"/>
+      <c r="LQ39" s="1"/>
+      <c r="LR39" s="1"/>
+      <c r="LS39" s="1"/>
+      <c r="LT39" s="1"/>
+      <c r="LU39" s="1"/>
+      <c r="LV39" s="1"/>
+      <c r="LW39" s="1"/>
+      <c r="LX39" s="1"/>
+      <c r="LY39" s="1"/>
+      <c r="LZ39" s="1"/>
+      <c r="MA39" s="1"/>
+      <c r="MB39" s="1"/>
+      <c r="MC39" s="1"/>
+      <c r="MD39" s="1"/>
+      <c r="ME39" s="1"/>
+      <c r="MF39" s="1"/>
+      <c r="MG39" s="1"/>
+      <c r="MH39" s="1"/>
+      <c r="MI39" s="1"/>
+      <c r="MJ39" s="1"/>
+      <c r="MK39" s="1"/>
+      <c r="ML39" s="1"/>
+      <c r="MM39" s="1"/>
+      <c r="MN39" s="1"/>
+      <c r="MO39" s="1"/>
+      <c r="MP39" s="1"/>
+      <c r="MQ39" s="1"/>
+      <c r="MR39" s="1"/>
+      <c r="MS39" s="1"/>
+      <c r="MT39" s="1"/>
+      <c r="MU39" s="1"/>
+      <c r="MV39" s="1"/>
+      <c r="MW39" s="1"/>
+      <c r="MX39" s="1"/>
+      <c r="MY39" s="1"/>
+      <c r="MZ39" s="1"/>
+      <c r="NA39" s="1"/>
+      <c r="NB39" s="1"/>
+      <c r="NC39" s="1"/>
+      <c r="ND39" s="1"/>
+      <c r="NE39" s="1"/>
+      <c r="NF39" s="1"/>
+      <c r="NG39" s="1"/>
+      <c r="NH39" s="1"/>
+      <c r="NI39" s="1"/>
+      <c r="NJ39" s="1"/>
+      <c r="NK39" s="1"/>
+      <c r="NL39" s="1"/>
+      <c r="NM39" s="1"/>
+      <c r="NN39" s="1"/>
+      <c r="NO39" s="1"/>
+      <c r="NP39" s="1"/>
+      <c r="NQ39" s="1"/>
+      <c r="NR39" s="1"/>
+      <c r="NS39" s="1"/>
+      <c r="NT39" s="1"/>
+      <c r="NU39" s="1"/>
+      <c r="NV39" s="1"/>
+      <c r="NW39" s="1"/>
+      <c r="NX39" s="1"/>
+      <c r="NY39" s="1"/>
+      <c r="NZ39" s="1"/>
+      <c r="OA39" s="1"/>
+      <c r="OB39" s="1"/>
+      <c r="OC39" s="1"/>
+      <c r="OD39" s="1"/>
+      <c r="OE39" s="1"/>
+      <c r="OF39" s="1"/>
+      <c r="OG39" s="1"/>
+      <c r="OH39" s="1"/>
+      <c r="OI39" s="1"/>
+      <c r="OJ39" s="1"/>
+      <c r="OK39" s="1"/>
+      <c r="OL39" s="1"/>
+      <c r="OM39" s="1"/>
+      <c r="ON39" s="1"/>
+      <c r="OO39" s="1"/>
+      <c r="OP39" s="1"/>
+      <c r="OQ39" s="1"/>
+      <c r="OR39" s="1"/>
+      <c r="OS39" s="1"/>
+      <c r="OT39" s="1"/>
+      <c r="OU39" s="1"/>
+      <c r="OV39" s="1"/>
+      <c r="OW39" s="1"/>
+      <c r="OX39" s="1"/>
+      <c r="OY39" s="1"/>
+      <c r="OZ39" s="1"/>
+      <c r="PA39" s="1"/>
+      <c r="PB39" s="1"/>
+      <c r="PC39" s="1"/>
+      <c r="PD39" s="1"/>
+      <c r="PE39" s="1"/>
+      <c r="PF39" s="1"/>
+      <c r="PG39" s="1"/>
+      <c r="PH39" s="1"/>
+      <c r="PI39" s="1"/>
+      <c r="PJ39" s="1"/>
+      <c r="PK39" s="1"/>
+      <c r="PL39" s="1"/>
+      <c r="PM39" s="1"/>
+      <c r="PN39" s="1"/>
+      <c r="PO39" s="1"/>
+      <c r="PP39" s="1"/>
+      <c r="PQ39" s="1"/>
+      <c r="PR39" s="1"/>
+      <c r="PS39" s="1"/>
+      <c r="PT39" s="1"/>
+      <c r="PU39" s="1"/>
+      <c r="PV39" s="1"/>
+      <c r="PW39" s="1"/>
+      <c r="PX39" s="1"/>
+      <c r="PY39" s="1"/>
+      <c r="PZ39" s="1"/>
+      <c r="QA39" s="1"/>
+      <c r="QB39" s="1"/>
+      <c r="QC39" s="1"/>
+      <c r="QD39" s="1"/>
+      <c r="QE39" s="1"/>
+      <c r="QF39" s="1"/>
+      <c r="QG39" s="1"/>
+      <c r="QH39" s="1"/>
+      <c r="QI39" s="1"/>
+      <c r="QJ39" s="1"/>
+      <c r="QK39" s="1"/>
+      <c r="QL39" s="1"/>
+      <c r="QM39" s="1"/>
+      <c r="QN39" s="1"/>
+      <c r="QO39" s="1"/>
+      <c r="QP39" s="1"/>
+      <c r="QQ39" s="1"/>
+      <c r="QR39" s="1"/>
+      <c r="QS39" s="1"/>
+      <c r="QT39" s="1"/>
+      <c r="QU39" s="1"/>
+      <c r="QV39" s="1"/>
+      <c r="QW39" s="1"/>
+      <c r="QX39" s="1"/>
+      <c r="QY39" s="1"/>
+      <c r="QZ39" s="1"/>
+      <c r="RA39" s="1"/>
+      <c r="RB39" s="1"/>
+      <c r="RC39" s="1"/>
+      <c r="RD39" s="1"/>
+      <c r="RE39" s="1"/>
+      <c r="RF39" s="1"/>
+      <c r="RG39" s="1"/>
+      <c r="RH39" s="1"/>
+      <c r="RI39" s="1"/>
+      <c r="RJ39" s="1"/>
+      <c r="RK39" s="1"/>
+      <c r="RL39" s="1"/>
+      <c r="RM39" s="1"/>
+      <c r="RN39" s="1"/>
+      <c r="RO39" s="1"/>
+      <c r="RP39" s="1"/>
+      <c r="RQ39" s="1"/>
+      <c r="RR39" s="1"/>
+      <c r="RS39" s="1"/>
+      <c r="RT39" s="1"/>
+      <c r="RU39" s="1"/>
+      <c r="RV39" s="1"/>
+      <c r="RW39" s="1"/>
+      <c r="RX39" s="1"/>
+      <c r="RY39" s="1"/>
+      <c r="RZ39" s="1"/>
+      <c r="SA39" s="1"/>
+      <c r="SB39" s="1"/>
+      <c r="SC39" s="1"/>
+      <c r="SD39" s="1"/>
+      <c r="SE39" s="1"/>
+      <c r="SF39" s="1"/>
+      <c r="SG39" s="1"/>
+      <c r="SH39" s="1"/>
+      <c r="SI39" s="1"/>
+      <c r="SJ39" s="1"/>
+      <c r="SK39" s="1"/>
+      <c r="SL39" s="1"/>
+      <c r="SM39" s="1"/>
+      <c r="SN39" s="1"/>
+      <c r="SO39" s="1"/>
+      <c r="SP39" s="1"/>
+      <c r="SQ39" s="1"/>
+      <c r="SR39" s="1"/>
+      <c r="SS39" s="1"/>
+      <c r="ST39" s="1"/>
+      <c r="SU39" s="1"/>
+      <c r="SV39" s="1"/>
+      <c r="SW39" s="1"/>
+      <c r="SX39" s="1"/>
+      <c r="SY39" s="1"/>
+      <c r="SZ39" s="1"/>
+      <c r="TA39" s="1"/>
+      <c r="TB39" s="1"/>
+      <c r="TC39" s="1"/>
+      <c r="TD39" s="1"/>
+      <c r="TE39" s="1"/>
+      <c r="TF39" s="1"/>
+      <c r="TG39" s="1"/>
+      <c r="TH39" s="1"/>
+      <c r="TI39" s="1"/>
+      <c r="TJ39" s="1"/>
+      <c r="TK39" s="1"/>
+      <c r="TL39" s="1"/>
+      <c r="TM39" s="1"/>
+      <c r="TN39" s="1"/>
+      <c r="TO39" s="1"/>
+      <c r="TP39" s="1"/>
+      <c r="TQ39" s="1"/>
+      <c r="TR39" s="1"/>
+      <c r="TS39" s="1"/>
+      <c r="TT39" s="1"/>
+      <c r="TU39" s="1"/>
+      <c r="TV39" s="1"/>
+      <c r="TW39" s="1"/>
+      <c r="TX39" s="1"/>
+      <c r="TY39" s="1"/>
+      <c r="TZ39" s="1"/>
+      <c r="UA39" s="1"/>
+      <c r="UB39" s="1"/>
+      <c r="UC39" s="1"/>
+      <c r="UD39" s="1"/>
+      <c r="UE39" s="1"/>
+      <c r="UF39" s="1"/>
+      <c r="UG39" s="1"/>
+      <c r="UH39" s="1"/>
+      <c r="UI39" s="1"/>
+      <c r="UJ39" s="1"/>
+      <c r="UK39" s="1"/>
+      <c r="UL39" s="1"/>
+      <c r="UM39" s="1"/>
+      <c r="UN39" s="1"/>
+      <c r="UO39" s="1"/>
+      <c r="UP39" s="1"/>
+      <c r="UQ39" s="1"/>
+      <c r="UR39" s="1"/>
+      <c r="US39" s="1"/>
+      <c r="UT39" s="1"/>
+      <c r="UU39" s="1"/>
+      <c r="UV39" s="1"/>
+      <c r="UW39" s="1"/>
+      <c r="UX39" s="1"/>
+      <c r="UY39" s="1"/>
+      <c r="UZ39" s="1"/>
+      <c r="VA39" s="1"/>
+      <c r="VB39" s="1"/>
+      <c r="VC39" s="1"/>
+      <c r="VD39" s="1"/>
+      <c r="VE39" s="1"/>
+      <c r="VF39" s="1"/>
+      <c r="VG39" s="1"/>
+      <c r="VH39" s="1"/>
+      <c r="VI39" s="1"/>
+      <c r="VJ39" s="1"/>
+      <c r="VK39" s="1"/>
+      <c r="VL39" s="1"/>
+      <c r="VM39" s="1"/>
+      <c r="VN39" s="1"/>
+      <c r="VO39" s="1"/>
+      <c r="VP39" s="1"/>
+      <c r="VQ39" s="1"/>
+      <c r="VR39" s="1"/>
+      <c r="VS39" s="1"/>
+      <c r="VT39" s="1"/>
+      <c r="VU39" s="1"/>
+      <c r="VV39" s="1"/>
+      <c r="VW39" s="1"/>
+      <c r="VX39" s="1"/>
+      <c r="VY39" s="1"/>
+      <c r="VZ39" s="1"/>
+      <c r="WA39" s="1"/>
+      <c r="WB39" s="1"/>
+      <c r="WC39" s="1"/>
+      <c r="WD39" s="1"/>
+      <c r="WE39" s="1"/>
+      <c r="WF39" s="1"/>
+      <c r="WG39" s="1"/>
+      <c r="WH39" s="1"/>
+      <c r="WI39" s="1"/>
+      <c r="WJ39" s="1"/>
+      <c r="WK39" s="1"/>
+      <c r="WL39" s="1"/>
+      <c r="WM39" s="1"/>
+      <c r="WN39" s="1"/>
+      <c r="WO39" s="1"/>
+      <c r="WP39" s="1"/>
+      <c r="WQ39" s="1"/>
+      <c r="WR39" s="1"/>
+      <c r="WS39" s="1"/>
+      <c r="WT39" s="1"/>
+      <c r="WU39" s="1"/>
+      <c r="WV39" s="1"/>
+      <c r="WW39" s="1"/>
+      <c r="WX39" s="1"/>
+      <c r="WY39" s="1"/>
+      <c r="WZ39" s="1"/>
+      <c r="XA39" s="1"/>
+      <c r="XB39" s="1"/>
+      <c r="XC39" s="1"/>
+      <c r="XD39" s="1"/>
+      <c r="XE39" s="1"/>
+      <c r="XF39" s="1"/>
+      <c r="XG39" s="1"/>
+      <c r="XH39" s="1"/>
+      <c r="XI39" s="1"/>
+      <c r="XJ39" s="1"/>
+      <c r="XK39" s="1"/>
+      <c r="XL39" s="1"/>
+      <c r="XM39" s="1"/>
+      <c r="XN39" s="1"/>
+      <c r="XO39" s="1"/>
+      <c r="XP39" s="1"/>
+      <c r="XQ39" s="1"/>
+      <c r="XR39" s="1"/>
+      <c r="XS39" s="1"/>
+      <c r="XT39" s="1"/>
+      <c r="XU39" s="1"/>
+      <c r="XV39" s="1"/>
+      <c r="XW39" s="1"/>
+      <c r="XX39" s="1"/>
+      <c r="XY39" s="1"/>
+      <c r="XZ39" s="1"/>
+      <c r="YA39" s="1"/>
+      <c r="YB39" s="1"/>
+      <c r="YC39" s="1"/>
+      <c r="YD39" s="1"/>
+      <c r="YE39" s="1"/>
+      <c r="YF39" s="1"/>
+      <c r="YG39" s="1"/>
+      <c r="YH39" s="1"/>
+      <c r="YI39" s="1"/>
+      <c r="YJ39" s="1"/>
+      <c r="YK39" s="1"/>
+      <c r="YL39" s="1"/>
+      <c r="YM39" s="1"/>
+      <c r="YN39" s="1"/>
+      <c r="YO39" s="1"/>
+      <c r="YP39" s="1"/>
+      <c r="YQ39" s="1"/>
+      <c r="YR39" s="1"/>
+      <c r="YS39" s="1"/>
+      <c r="YT39" s="1"/>
+      <c r="YU39" s="1"/>
+      <c r="YV39" s="1"/>
+      <c r="YW39" s="1"/>
+      <c r="YX39" s="1"/>
+      <c r="YY39" s="1"/>
+      <c r="YZ39" s="1"/>
+      <c r="ZA39" s="1"/>
+      <c r="ZB39" s="1"/>
+      <c r="ZC39" s="1"/>
+      <c r="ZD39" s="1"/>
+      <c r="ZE39" s="1"/>
+      <c r="ZF39" s="1"/>
+      <c r="ZG39" s="1"/>
+      <c r="ZH39" s="1"/>
+      <c r="ZI39" s="1"/>
+      <c r="ZJ39" s="1"/>
+      <c r="ZK39" s="1"/>
+      <c r="ZL39" s="1"/>
+      <c r="ZM39" s="1"/>
+      <c r="ZN39" s="1"/>
+      <c r="ZO39" s="1"/>
+      <c r="ZP39" s="1"/>
+      <c r="ZQ39" s="1"/>
+      <c r="ZR39" s="1"/>
+      <c r="ZS39" s="1"/>
+      <c r="ZT39" s="1"/>
+      <c r="ZU39" s="1"/>
+      <c r="ZV39" s="1"/>
+      <c r="ZW39" s="1"/>
+      <c r="ZX39" s="1"/>
+      <c r="ZY39" s="1"/>
+      <c r="ZZ39" s="1"/>
+      <c r="AAA39" s="1"/>
+      <c r="AAB39" s="1"/>
+      <c r="AAC39" s="1"/>
+      <c r="AAD39" s="1"/>
+      <c r="AAE39" s="1"/>
+      <c r="AAF39" s="1"/>
+      <c r="AAG39" s="1"/>
+      <c r="AAH39" s="1"/>
+      <c r="AAI39" s="1"/>
+      <c r="AAJ39" s="1"/>
+      <c r="AAK39" s="1"/>
+      <c r="AAL39" s="1"/>
+      <c r="AAM39" s="1"/>
+      <c r="AAN39" s="1"/>
+      <c r="AAO39" s="1"/>
+      <c r="AAP39" s="1"/>
+      <c r="AAQ39" s="1"/>
+      <c r="AAR39" s="1"/>
+      <c r="AAS39" s="1"/>
+      <c r="AAT39" s="1"/>
+      <c r="AAU39" s="1"/>
+      <c r="AAV39" s="1"/>
+      <c r="AAW39" s="1"/>
+      <c r="AAX39" s="1"/>
+      <c r="AAY39" s="1"/>
+      <c r="AAZ39" s="1"/>
+      <c r="ABA39" s="1"/>
+      <c r="ABB39" s="1"/>
+      <c r="ABC39" s="1"/>
+      <c r="ABD39" s="1"/>
+      <c r="ABE39" s="1"/>
+      <c r="ABF39" s="1"/>
+      <c r="ABG39" s="1"/>
+      <c r="ABH39" s="1"/>
+      <c r="ABI39" s="1"/>
+      <c r="ABJ39" s="1"/>
+      <c r="ABK39" s="1"/>
+      <c r="ABL39" s="1"/>
+      <c r="ABM39" s="1"/>
+      <c r="ABN39" s="1"/>
+      <c r="ABO39" s="1"/>
+      <c r="ABP39" s="1"/>
+      <c r="ABQ39" s="1"/>
+      <c r="ABR39" s="1"/>
+      <c r="ABS39" s="1"/>
+      <c r="ABT39" s="1"/>
+      <c r="ABU39" s="1"/>
+      <c r="ABV39" s="1"/>
+      <c r="ABW39" s="1"/>
+      <c r="ABX39" s="1"/>
+      <c r="ABY39" s="1"/>
+      <c r="ABZ39" s="1"/>
+      <c r="ACA39" s="1"/>
+      <c r="ACB39" s="1"/>
+      <c r="ACC39" s="1"/>
+      <c r="ACD39" s="1"/>
+      <c r="ACE39" s="1"/>
+      <c r="ACF39" s="1"/>
+      <c r="ACG39" s="1"/>
+      <c r="ACH39" s="1"/>
+      <c r="ACI39" s="1"/>
+      <c r="ACJ39" s="1"/>
+      <c r="ACK39" s="1"/>
+      <c r="ACL39" s="1"/>
+      <c r="ACM39" s="1"/>
+      <c r="ACN39" s="1"/>
+      <c r="ACO39" s="1"/>
+      <c r="ACP39" s="1"/>
+      <c r="ACQ39" s="1"/>
+      <c r="ACR39" s="1"/>
+      <c r="ACS39" s="1"/>
+      <c r="ACT39" s="1"/>
+      <c r="ACU39" s="1"/>
+      <c r="ACV39" s="1"/>
+      <c r="ACW39" s="1"/>
+      <c r="ACX39" s="1"/>
+      <c r="ACY39" s="1"/>
+      <c r="ACZ39" s="1"/>
+      <c r="ADA39" s="1"/>
+      <c r="ADB39" s="1"/>
+      <c r="ADC39" s="1"/>
+      <c r="ADD39" s="1"/>
+      <c r="ADE39" s="1"/>
+      <c r="ADF39" s="1"/>
+      <c r="ADG39" s="1"/>
+      <c r="ADH39" s="1"/>
+      <c r="ADI39" s="1"/>
+      <c r="ADJ39" s="1"/>
+      <c r="ADK39" s="1"/>
+      <c r="ADL39" s="1"/>
+      <c r="ADM39" s="1"/>
+      <c r="ADN39" s="1"/>
+      <c r="ADO39" s="1"/>
+      <c r="ADP39" s="1"/>
+      <c r="ADQ39" s="1"/>
+      <c r="ADR39" s="1"/>
+      <c r="ADS39" s="1"/>
+      <c r="ADT39" s="1"/>
+      <c r="ADU39" s="1"/>
+      <c r="ADV39" s="1"/>
+      <c r="ADW39" s="1"/>
+      <c r="ADX39" s="1"/>
+      <c r="ADY39" s="1"/>
+      <c r="ADZ39" s="1"/>
+      <c r="AEA39" s="1"/>
+      <c r="AEB39" s="1"/>
+      <c r="AEC39" s="1"/>
+      <c r="AED39" s="1"/>
+      <c r="AEE39" s="1"/>
+      <c r="AEF39" s="1"/>
+      <c r="AEG39" s="1"/>
+      <c r="AEH39" s="1"/>
+      <c r="AEI39" s="1"/>
+      <c r="AEJ39" s="1"/>
+      <c r="AEK39" s="1"/>
+      <c r="AEL39" s="1"/>
+      <c r="AEM39" s="1"/>
+      <c r="AEN39" s="1"/>
+      <c r="AEO39" s="1"/>
+      <c r="AEP39" s="1"/>
+      <c r="AEQ39" s="1"/>
+      <c r="AER39" s="1"/>
+      <c r="AES39" s="1"/>
+      <c r="AET39" s="1"/>
+      <c r="AEU39" s="1"/>
+      <c r="AEV39" s="1"/>
+      <c r="AEW39" s="1"/>
+      <c r="AEX39" s="1"/>
+      <c r="AEY39" s="1"/>
+      <c r="AEZ39" s="1"/>
+      <c r="AFA39" s="1"/>
+      <c r="AFB39" s="1"/>
+      <c r="AFC39" s="1"/>
+      <c r="AFD39" s="1"/>
+      <c r="AFE39" s="1"/>
+      <c r="AFF39" s="1"/>
+      <c r="AFG39" s="1"/>
+      <c r="AFH39" s="1"/>
+      <c r="AFI39" s="1"/>
+      <c r="AFJ39" s="1"/>
+      <c r="AFK39" s="1"/>
+      <c r="AFL39" s="1"/>
+      <c r="AFM39" s="1"/>
+      <c r="AFN39" s="1"/>
+      <c r="AFO39" s="1"/>
+      <c r="AFP39" s="1"/>
+      <c r="AFQ39" s="1"/>
+      <c r="AFR39" s="1"/>
+      <c r="AFS39" s="1"/>
+      <c r="AFT39" s="1"/>
+      <c r="AFU39" s="1"/>
+      <c r="AFV39" s="1"/>
+      <c r="AFW39" s="1"/>
+      <c r="AFX39" s="1"/>
+      <c r="AFY39" s="1"/>
+      <c r="AFZ39" s="1"/>
+      <c r="AGA39" s="1"/>
+      <c r="AGB39" s="1"/>
+      <c r="AGC39" s="1"/>
+      <c r="AGD39" s="1"/>
+      <c r="AGE39" s="1"/>
+      <c r="AGF39" s="1"/>
+      <c r="AGG39" s="1"/>
+      <c r="AGH39" s="1"/>
+      <c r="AGI39" s="1"/>
+      <c r="AGJ39" s="1"/>
+      <c r="AGK39" s="1"/>
+      <c r="AGL39" s="1"/>
+      <c r="AGM39" s="1"/>
+      <c r="AGN39" s="1"/>
+      <c r="AGO39" s="1"/>
+      <c r="AGP39" s="1"/>
+      <c r="AGQ39" s="1"/>
+      <c r="AGR39" s="1"/>
+      <c r="AGS39" s="1"/>
+      <c r="AGT39" s="1"/>
+      <c r="AGU39" s="1"/>
+      <c r="AGV39" s="1"/>
+      <c r="AGW39" s="1"/>
+      <c r="AGX39" s="1"/>
+      <c r="AGY39" s="1"/>
+      <c r="AGZ39" s="1"/>
+      <c r="AHA39" s="1"/>
+      <c r="AHB39" s="1"/>
+      <c r="AHC39" s="1"/>
+      <c r="AHD39" s="1"/>
+      <c r="AHE39" s="1"/>
+      <c r="AHF39" s="1"/>
+      <c r="AHG39" s="1"/>
+      <c r="AHH39" s="1"/>
+      <c r="AHI39" s="1"/>
+      <c r="AHJ39" s="1"/>
+      <c r="AHK39" s="1"/>
+      <c r="AHL39" s="1"/>
+      <c r="AHM39" s="1"/>
+      <c r="AHN39" s="1"/>
+      <c r="AHO39" s="1"/>
+      <c r="AHP39" s="1"/>
+      <c r="AHQ39" s="1"/>
+      <c r="AHR39" s="1"/>
+      <c r="AHS39" s="1"/>
+      <c r="AHT39" s="1"/>
+      <c r="AHU39" s="1"/>
+      <c r="AHV39" s="1"/>
+      <c r="AHW39" s="1"/>
+      <c r="AHX39" s="1"/>
+      <c r="AHY39" s="1"/>
+      <c r="AHZ39" s="1"/>
+      <c r="AIA39" s="1"/>
+      <c r="AIB39" s="1"/>
+      <c r="AIC39" s="1"/>
+      <c r="AID39" s="1"/>
+      <c r="AIE39" s="1"/>
+      <c r="AIF39" s="1"/>
+      <c r="AIG39" s="1"/>
+      <c r="AIH39" s="1"/>
+      <c r="AII39" s="1"/>
+      <c r="AIJ39" s="1"/>
+      <c r="AIK39" s="1"/>
+      <c r="AIL39" s="1"/>
+      <c r="AIM39" s="1"/>
+      <c r="AIN39" s="1"/>
+      <c r="AIO39" s="1"/>
+      <c r="AIP39" s="1"/>
+      <c r="AIQ39" s="1"/>
+      <c r="AIR39" s="1"/>
+      <c r="AIS39" s="1"/>
+      <c r="AIT39" s="1"/>
+      <c r="AIU39" s="1"/>
+      <c r="AIV39" s="1"/>
+      <c r="AIW39" s="1"/>
+      <c r="AIX39" s="1"/>
+      <c r="AIY39" s="1"/>
+      <c r="AIZ39" s="1"/>
+      <c r="AJA39" s="1"/>
+      <c r="AJB39" s="1"/>
+      <c r="AJC39" s="1"/>
+      <c r="AJD39" s="1"/>
+      <c r="AJE39" s="1"/>
+      <c r="AJF39" s="1"/>
+      <c r="AJG39" s="1"/>
+      <c r="AJH39" s="1"/>
+      <c r="AJI39" s="1"/>
+      <c r="AJJ39" s="1"/>
+      <c r="AJK39" s="1"/>
+      <c r="AJL39" s="1"/>
+      <c r="AJM39" s="1"/>
+      <c r="AJN39" s="1"/>
+      <c r="AJO39" s="1"/>
+      <c r="AJP39" s="1"/>
+      <c r="AJQ39" s="1"/>
+      <c r="AJR39" s="1"/>
+      <c r="AJS39" s="1"/>
+      <c r="AJT39" s="1"/>
+      <c r="AJU39" s="1"/>
+      <c r="AJV39" s="1"/>
+      <c r="AJW39" s="1"/>
+      <c r="AJX39" s="1"/>
+      <c r="AJY39" s="1"/>
+      <c r="AJZ39" s="1"/>
+      <c r="AKA39" s="1"/>
+      <c r="AKB39" s="1"/>
+      <c r="AKC39" s="1"/>
+      <c r="AKD39" s="1"/>
+      <c r="AKE39" s="1"/>
+      <c r="AKF39" s="1"/>
+      <c r="AKG39" s="1"/>
+      <c r="AKH39" s="1"/>
+      <c r="AKI39" s="1"/>
+      <c r="AKJ39" s="1"/>
+      <c r="AKK39" s="1"/>
+      <c r="AKL39" s="1"/>
+      <c r="AKM39" s="1"/>
+      <c r="AKN39" s="1"/>
+      <c r="AKO39" s="1"/>
+      <c r="AKP39" s="1"/>
+      <c r="AKQ39" s="1"/>
+      <c r="AKR39" s="1"/>
+      <c r="AKS39" s="1"/>
+      <c r="AKT39" s="1"/>
+      <c r="AKU39" s="1"/>
+      <c r="AKV39" s="1"/>
+      <c r="AKW39" s="1"/>
+      <c r="AKX39" s="1"/>
+      <c r="AKY39" s="1"/>
+      <c r="AKZ39" s="1"/>
+      <c r="ALA39" s="1"/>
+      <c r="ALB39" s="1"/>
+      <c r="ALC39" s="1"/>
+      <c r="ALD39" s="1"/>
+      <c r="ALE39" s="1"/>
+      <c r="ALF39" s="1"/>
+      <c r="ALG39" s="1"/>
+      <c r="ALH39" s="1"/>
+      <c r="ALI39" s="1"/>
+      <c r="ALJ39" s="1"/>
+      <c r="ALK39" s="1"/>
+      <c r="ALL39" s="1"/>
+      <c r="ALM39" s="1"/>
+      <c r="ALN39" s="1"/>
+      <c r="ALO39" s="1"/>
+      <c r="ALP39" s="1"/>
+      <c r="ALQ39" s="1"/>
+      <c r="ALR39" s="1"/>
+      <c r="ALS39" s="1"/>
+      <c r="ALT39" s="1"/>
+      <c r="ALU39" s="1"/>
+      <c r="ALV39" s="1"/>
+      <c r="ALW39" s="1"/>
+      <c r="ALX39" s="1"/>
+      <c r="ALY39" s="1"/>
+      <c r="ALZ39" s="1"/>
+      <c r="AMA39" s="1"/>
+      <c r="AMB39" s="1"/>
+      <c r="AMC39" s="1"/>
+      <c r="AMD39" s="1"/>
+      <c r="AME39" s="1"/>
+      <c r="AMF39" s="1"/>
+      <c r="AMG39" s="1"/>
+      <c r="AMH39" s="1"/>
+      <c r="AMI39" s="1"/>
+      <c r="AMJ39" s="1"/>
+      <c r="AMK39" s="1"/>
     </row>
-    <row r="40" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A40" s="27"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="49"/>
+    <row r="40" spans="1:1025" customFormat="1" ht="16.5">
+      <c r="A40" s="16">
+        <v>39</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D40" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F40" s="57">
+        <v>42513</v>
+      </c>
+      <c r="G40" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" s="57">
+        <v>42513</v>
+      </c>
+      <c r="I40" s="56"/>
+      <c r="J40" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L40" s="56"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="58"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S40" s="60"/>
+      <c r="T40" s="61"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
+      <c r="CC40" s="1"/>
+      <c r="CD40" s="1"/>
+      <c r="CE40" s="1"/>
+      <c r="CF40" s="1"/>
+      <c r="CG40" s="1"/>
+      <c r="CH40" s="1"/>
+      <c r="CI40" s="1"/>
+      <c r="CJ40" s="1"/>
+      <c r="CK40" s="1"/>
+      <c r="CL40" s="1"/>
+      <c r="CM40" s="1"/>
+      <c r="CN40" s="1"/>
+      <c r="CO40" s="1"/>
+      <c r="CP40" s="1"/>
+      <c r="CQ40" s="1"/>
+      <c r="CR40" s="1"/>
+      <c r="CS40" s="1"/>
+      <c r="CT40" s="1"/>
+      <c r="CU40" s="1"/>
+      <c r="CV40" s="1"/>
+      <c r="CW40" s="1"/>
+      <c r="CX40" s="1"/>
+      <c r="CY40" s="1"/>
+      <c r="CZ40" s="1"/>
+      <c r="DA40" s="1"/>
+      <c r="DB40" s="1"/>
+      <c r="DC40" s="1"/>
+      <c r="DD40" s="1"/>
+      <c r="DE40" s="1"/>
+      <c r="DF40" s="1"/>
+      <c r="DG40" s="1"/>
+      <c r="DH40" s="1"/>
+      <c r="DI40" s="1"/>
+      <c r="DJ40" s="1"/>
+      <c r="DK40" s="1"/>
+      <c r="DL40" s="1"/>
+      <c r="DM40" s="1"/>
+      <c r="DN40" s="1"/>
+      <c r="DO40" s="1"/>
+      <c r="DP40" s="1"/>
+      <c r="DQ40" s="1"/>
+      <c r="DR40" s="1"/>
+      <c r="DS40" s="1"/>
+      <c r="DT40" s="1"/>
+      <c r="DU40" s="1"/>
+      <c r="DV40" s="1"/>
+      <c r="DW40" s="1"/>
+      <c r="DX40" s="1"/>
+      <c r="DY40" s="1"/>
+      <c r="DZ40" s="1"/>
+      <c r="EA40" s="1"/>
+      <c r="EB40" s="1"/>
+      <c r="EC40" s="1"/>
+      <c r="ED40" s="1"/>
+      <c r="EE40" s="1"/>
+      <c r="EF40" s="1"/>
+      <c r="EG40" s="1"/>
+      <c r="EH40" s="1"/>
+      <c r="EI40" s="1"/>
+      <c r="EJ40" s="1"/>
+      <c r="EK40" s="1"/>
+      <c r="EL40" s="1"/>
+      <c r="EM40" s="1"/>
+      <c r="EN40" s="1"/>
+      <c r="EO40" s="1"/>
+      <c r="EP40" s="1"/>
+      <c r="EQ40" s="1"/>
+      <c r="ER40" s="1"/>
+      <c r="ES40" s="1"/>
+      <c r="ET40" s="1"/>
+      <c r="EU40" s="1"/>
+      <c r="EV40" s="1"/>
+      <c r="EW40" s="1"/>
+      <c r="EX40" s="1"/>
+      <c r="EY40" s="1"/>
+      <c r="EZ40" s="1"/>
+      <c r="FA40" s="1"/>
+      <c r="FB40" s="1"/>
+      <c r="FC40" s="1"/>
+      <c r="FD40" s="1"/>
+      <c r="FE40" s="1"/>
+      <c r="FF40" s="1"/>
+      <c r="FG40" s="1"/>
+      <c r="FH40" s="1"/>
+      <c r="FI40" s="1"/>
+      <c r="FJ40" s="1"/>
+      <c r="FK40" s="1"/>
+      <c r="FL40" s="1"/>
+      <c r="FM40" s="1"/>
+      <c r="FN40" s="1"/>
+      <c r="FO40" s="1"/>
+      <c r="FP40" s="1"/>
+      <c r="FQ40" s="1"/>
+      <c r="FR40" s="1"/>
+      <c r="FS40" s="1"/>
+      <c r="FT40" s="1"/>
+      <c r="FU40" s="1"/>
+      <c r="FV40" s="1"/>
+      <c r="FW40" s="1"/>
+      <c r="FX40" s="1"/>
+      <c r="FY40" s="1"/>
+      <c r="FZ40" s="1"/>
+      <c r="GA40" s="1"/>
+      <c r="GB40" s="1"/>
+      <c r="GC40" s="1"/>
+      <c r="GD40" s="1"/>
+      <c r="GE40" s="1"/>
+      <c r="GF40" s="1"/>
+      <c r="GG40" s="1"/>
+      <c r="GH40" s="1"/>
+      <c r="GI40" s="1"/>
+      <c r="GJ40" s="1"/>
+      <c r="GK40" s="1"/>
+      <c r="GL40" s="1"/>
+      <c r="GM40" s="1"/>
+      <c r="GN40" s="1"/>
+      <c r="GO40" s="1"/>
+      <c r="GP40" s="1"/>
+      <c r="GQ40" s="1"/>
+      <c r="GR40" s="1"/>
+      <c r="GS40" s="1"/>
+      <c r="GT40" s="1"/>
+      <c r="GU40" s="1"/>
+      <c r="GV40" s="1"/>
+      <c r="GW40" s="1"/>
+      <c r="GX40" s="1"/>
+      <c r="GY40" s="1"/>
+      <c r="GZ40" s="1"/>
+      <c r="HA40" s="1"/>
+      <c r="HB40" s="1"/>
+      <c r="HC40" s="1"/>
+      <c r="HD40" s="1"/>
+      <c r="HE40" s="1"/>
+      <c r="HF40" s="1"/>
+      <c r="HG40" s="1"/>
+      <c r="HH40" s="1"/>
+      <c r="HI40" s="1"/>
+      <c r="HJ40" s="1"/>
+      <c r="HK40" s="1"/>
+      <c r="HL40" s="1"/>
+      <c r="HM40" s="1"/>
+      <c r="HN40" s="1"/>
+      <c r="HO40" s="1"/>
+      <c r="HP40" s="1"/>
+      <c r="HQ40" s="1"/>
+      <c r="HR40" s="1"/>
+      <c r="HS40" s="1"/>
+      <c r="HT40" s="1"/>
+      <c r="HU40" s="1"/>
+      <c r="HV40" s="1"/>
+      <c r="HW40" s="1"/>
+      <c r="HX40" s="1"/>
+      <c r="HY40" s="1"/>
+      <c r="HZ40" s="1"/>
+      <c r="IA40" s="1"/>
+      <c r="IB40" s="1"/>
+      <c r="IC40" s="1"/>
+      <c r="ID40" s="1"/>
+      <c r="IE40" s="1"/>
+      <c r="IF40" s="1"/>
+      <c r="IG40" s="1"/>
+      <c r="IH40" s="1"/>
+      <c r="II40" s="1"/>
+      <c r="IJ40" s="1"/>
+      <c r="IK40" s="1"/>
+      <c r="IL40" s="1"/>
+      <c r="IM40" s="1"/>
+      <c r="IN40" s="1"/>
+      <c r="IO40" s="1"/>
+      <c r="IP40" s="1"/>
+      <c r="IQ40" s="1"/>
+      <c r="IR40" s="1"/>
+      <c r="IS40" s="1"/>
+      <c r="IT40" s="1"/>
+      <c r="IU40" s="1"/>
+      <c r="IV40" s="1"/>
+      <c r="IW40" s="1"/>
+      <c r="IX40" s="1"/>
+      <c r="IY40" s="1"/>
+      <c r="IZ40" s="1"/>
+      <c r="JA40" s="1"/>
+      <c r="JB40" s="1"/>
+      <c r="JC40" s="1"/>
+      <c r="JD40" s="1"/>
+      <c r="JE40" s="1"/>
+      <c r="JF40" s="1"/>
+      <c r="JG40" s="1"/>
+      <c r="JH40" s="1"/>
+      <c r="JI40" s="1"/>
+      <c r="JJ40" s="1"/>
+      <c r="JK40" s="1"/>
+      <c r="JL40" s="1"/>
+      <c r="JM40" s="1"/>
+      <c r="JN40" s="1"/>
+      <c r="JO40" s="1"/>
+      <c r="JP40" s="1"/>
+      <c r="JQ40" s="1"/>
+      <c r="JR40" s="1"/>
+      <c r="JS40" s="1"/>
+      <c r="JT40" s="1"/>
+      <c r="JU40" s="1"/>
+      <c r="JV40" s="1"/>
+      <c r="JW40" s="1"/>
+      <c r="JX40" s="1"/>
+      <c r="JY40" s="1"/>
+      <c r="JZ40" s="1"/>
+      <c r="KA40" s="1"/>
+      <c r="KB40" s="1"/>
+      <c r="KC40" s="1"/>
+      <c r="KD40" s="1"/>
+      <c r="KE40" s="1"/>
+      <c r="KF40" s="1"/>
+      <c r="KG40" s="1"/>
+      <c r="KH40" s="1"/>
+      <c r="KI40" s="1"/>
+      <c r="KJ40" s="1"/>
+      <c r="KK40" s="1"/>
+      <c r="KL40" s="1"/>
+      <c r="KM40" s="1"/>
+      <c r="KN40" s="1"/>
+      <c r="KO40" s="1"/>
+      <c r="KP40" s="1"/>
+      <c r="KQ40" s="1"/>
+      <c r="KR40" s="1"/>
+      <c r="KS40" s="1"/>
+      <c r="KT40" s="1"/>
+      <c r="KU40" s="1"/>
+      <c r="KV40" s="1"/>
+      <c r="KW40" s="1"/>
+      <c r="KX40" s="1"/>
+      <c r="KY40" s="1"/>
+      <c r="KZ40" s="1"/>
+      <c r="LA40" s="1"/>
+      <c r="LB40" s="1"/>
+      <c r="LC40" s="1"/>
+      <c r="LD40" s="1"/>
+      <c r="LE40" s="1"/>
+      <c r="LF40" s="1"/>
+      <c r="LG40" s="1"/>
+      <c r="LH40" s="1"/>
+      <c r="LI40" s="1"/>
+      <c r="LJ40" s="1"/>
+      <c r="LK40" s="1"/>
+      <c r="LL40" s="1"/>
+      <c r="LM40" s="1"/>
+      <c r="LN40" s="1"/>
+      <c r="LO40" s="1"/>
+      <c r="LP40" s="1"/>
+      <c r="LQ40" s="1"/>
+      <c r="LR40" s="1"/>
+      <c r="LS40" s="1"/>
+      <c r="LT40" s="1"/>
+      <c r="LU40" s="1"/>
+      <c r="LV40" s="1"/>
+      <c r="LW40" s="1"/>
+      <c r="LX40" s="1"/>
+      <c r="LY40" s="1"/>
+      <c r="LZ40" s="1"/>
+      <c r="MA40" s="1"/>
+      <c r="MB40" s="1"/>
+      <c r="MC40" s="1"/>
+      <c r="MD40" s="1"/>
+      <c r="ME40" s="1"/>
+      <c r="MF40" s="1"/>
+      <c r="MG40" s="1"/>
+      <c r="MH40" s="1"/>
+      <c r="MI40" s="1"/>
+      <c r="MJ40" s="1"/>
+      <c r="MK40" s="1"/>
+      <c r="ML40" s="1"/>
+      <c r="MM40" s="1"/>
+      <c r="MN40" s="1"/>
+      <c r="MO40" s="1"/>
+      <c r="MP40" s="1"/>
+      <c r="MQ40" s="1"/>
+      <c r="MR40" s="1"/>
+      <c r="MS40" s="1"/>
+      <c r="MT40" s="1"/>
+      <c r="MU40" s="1"/>
+      <c r="MV40" s="1"/>
+      <c r="MW40" s="1"/>
+      <c r="MX40" s="1"/>
+      <c r="MY40" s="1"/>
+      <c r="MZ40" s="1"/>
+      <c r="NA40" s="1"/>
+      <c r="NB40" s="1"/>
+      <c r="NC40" s="1"/>
+      <c r="ND40" s="1"/>
+      <c r="NE40" s="1"/>
+      <c r="NF40" s="1"/>
+      <c r="NG40" s="1"/>
+      <c r="NH40" s="1"/>
+      <c r="NI40" s="1"/>
+      <c r="NJ40" s="1"/>
+      <c r="NK40" s="1"/>
+      <c r="NL40" s="1"/>
+      <c r="NM40" s="1"/>
+      <c r="NN40" s="1"/>
+      <c r="NO40" s="1"/>
+      <c r="NP40" s="1"/>
+      <c r="NQ40" s="1"/>
+      <c r="NR40" s="1"/>
+      <c r="NS40" s="1"/>
+      <c r="NT40" s="1"/>
+      <c r="NU40" s="1"/>
+      <c r="NV40" s="1"/>
+      <c r="NW40" s="1"/>
+      <c r="NX40" s="1"/>
+      <c r="NY40" s="1"/>
+      <c r="NZ40" s="1"/>
+      <c r="OA40" s="1"/>
+      <c r="OB40" s="1"/>
+      <c r="OC40" s="1"/>
+      <c r="OD40" s="1"/>
+      <c r="OE40" s="1"/>
+      <c r="OF40" s="1"/>
+      <c r="OG40" s="1"/>
+      <c r="OH40" s="1"/>
+      <c r="OI40" s="1"/>
+      <c r="OJ40" s="1"/>
+      <c r="OK40" s="1"/>
+      <c r="OL40" s="1"/>
+      <c r="OM40" s="1"/>
+      <c r="ON40" s="1"/>
+      <c r="OO40" s="1"/>
+      <c r="OP40" s="1"/>
+      <c r="OQ40" s="1"/>
+      <c r="OR40" s="1"/>
+      <c r="OS40" s="1"/>
+      <c r="OT40" s="1"/>
+      <c r="OU40" s="1"/>
+      <c r="OV40" s="1"/>
+      <c r="OW40" s="1"/>
+      <c r="OX40" s="1"/>
+      <c r="OY40" s="1"/>
+      <c r="OZ40" s="1"/>
+      <c r="PA40" s="1"/>
+      <c r="PB40" s="1"/>
+      <c r="PC40" s="1"/>
+      <c r="PD40" s="1"/>
+      <c r="PE40" s="1"/>
+      <c r="PF40" s="1"/>
+      <c r="PG40" s="1"/>
+      <c r="PH40" s="1"/>
+      <c r="PI40" s="1"/>
+      <c r="PJ40" s="1"/>
+      <c r="PK40" s="1"/>
+      <c r="PL40" s="1"/>
+      <c r="PM40" s="1"/>
+      <c r="PN40" s="1"/>
+      <c r="PO40" s="1"/>
+      <c r="PP40" s="1"/>
+      <c r="PQ40" s="1"/>
+      <c r="PR40" s="1"/>
+      <c r="PS40" s="1"/>
+      <c r="PT40" s="1"/>
+      <c r="PU40" s="1"/>
+      <c r="PV40" s="1"/>
+      <c r="PW40" s="1"/>
+      <c r="PX40" s="1"/>
+      <c r="PY40" s="1"/>
+      <c r="PZ40" s="1"/>
+      <c r="QA40" s="1"/>
+      <c r="QB40" s="1"/>
+      <c r="QC40" s="1"/>
+      <c r="QD40" s="1"/>
+      <c r="QE40" s="1"/>
+      <c r="QF40" s="1"/>
+      <c r="QG40" s="1"/>
+      <c r="QH40" s="1"/>
+      <c r="QI40" s="1"/>
+      <c r="QJ40" s="1"/>
+      <c r="QK40" s="1"/>
+      <c r="QL40" s="1"/>
+      <c r="QM40" s="1"/>
+      <c r="QN40" s="1"/>
+      <c r="QO40" s="1"/>
+      <c r="QP40" s="1"/>
+      <c r="QQ40" s="1"/>
+      <c r="QR40" s="1"/>
+      <c r="QS40" s="1"/>
+      <c r="QT40" s="1"/>
+      <c r="QU40" s="1"/>
+      <c r="QV40" s="1"/>
+      <c r="QW40" s="1"/>
+      <c r="QX40" s="1"/>
+      <c r="QY40" s="1"/>
+      <c r="QZ40" s="1"/>
+      <c r="RA40" s="1"/>
+      <c r="RB40" s="1"/>
+      <c r="RC40" s="1"/>
+      <c r="RD40" s="1"/>
+      <c r="RE40" s="1"/>
+      <c r="RF40" s="1"/>
+      <c r="RG40" s="1"/>
+      <c r="RH40" s="1"/>
+      <c r="RI40" s="1"/>
+      <c r="RJ40" s="1"/>
+      <c r="RK40" s="1"/>
+      <c r="RL40" s="1"/>
+      <c r="RM40" s="1"/>
+      <c r="RN40" s="1"/>
+      <c r="RO40" s="1"/>
+      <c r="RP40" s="1"/>
+      <c r="RQ40" s="1"/>
+      <c r="RR40" s="1"/>
+      <c r="RS40" s="1"/>
+      <c r="RT40" s="1"/>
+      <c r="RU40" s="1"/>
+      <c r="RV40" s="1"/>
+      <c r="RW40" s="1"/>
+      <c r="RX40" s="1"/>
+      <c r="RY40" s="1"/>
+      <c r="RZ40" s="1"/>
+      <c r="SA40" s="1"/>
+      <c r="SB40" s="1"/>
+      <c r="SC40" s="1"/>
+      <c r="SD40" s="1"/>
+      <c r="SE40" s="1"/>
+      <c r="SF40" s="1"/>
+      <c r="SG40" s="1"/>
+      <c r="SH40" s="1"/>
+      <c r="SI40" s="1"/>
+      <c r="SJ40" s="1"/>
+      <c r="SK40" s="1"/>
+      <c r="SL40" s="1"/>
+      <c r="SM40" s="1"/>
+      <c r="SN40" s="1"/>
+      <c r="SO40" s="1"/>
+      <c r="SP40" s="1"/>
+      <c r="SQ40" s="1"/>
+      <c r="SR40" s="1"/>
+      <c r="SS40" s="1"/>
+      <c r="ST40" s="1"/>
+      <c r="SU40" s="1"/>
+      <c r="SV40" s="1"/>
+      <c r="SW40" s="1"/>
+      <c r="SX40" s="1"/>
+      <c r="SY40" s="1"/>
+      <c r="SZ40" s="1"/>
+      <c r="TA40" s="1"/>
+      <c r="TB40" s="1"/>
+      <c r="TC40" s="1"/>
+      <c r="TD40" s="1"/>
+      <c r="TE40" s="1"/>
+      <c r="TF40" s="1"/>
+      <c r="TG40" s="1"/>
+      <c r="TH40" s="1"/>
+      <c r="TI40" s="1"/>
+      <c r="TJ40" s="1"/>
+      <c r="TK40" s="1"/>
+      <c r="TL40" s="1"/>
+      <c r="TM40" s="1"/>
+      <c r="TN40" s="1"/>
+      <c r="TO40" s="1"/>
+      <c r="TP40" s="1"/>
+      <c r="TQ40" s="1"/>
+      <c r="TR40" s="1"/>
+      <c r="TS40" s="1"/>
+      <c r="TT40" s="1"/>
+      <c r="TU40" s="1"/>
+      <c r="TV40" s="1"/>
+      <c r="TW40" s="1"/>
+      <c r="TX40" s="1"/>
+      <c r="TY40" s="1"/>
+      <c r="TZ40" s="1"/>
+      <c r="UA40" s="1"/>
+      <c r="UB40" s="1"/>
+      <c r="UC40" s="1"/>
+      <c r="UD40" s="1"/>
+      <c r="UE40" s="1"/>
+      <c r="UF40" s="1"/>
+      <c r="UG40" s="1"/>
+      <c r="UH40" s="1"/>
+      <c r="UI40" s="1"/>
+      <c r="UJ40" s="1"/>
+      <c r="UK40" s="1"/>
+      <c r="UL40" s="1"/>
+      <c r="UM40" s="1"/>
+      <c r="UN40" s="1"/>
+      <c r="UO40" s="1"/>
+      <c r="UP40" s="1"/>
+      <c r="UQ40" s="1"/>
+      <c r="UR40" s="1"/>
+      <c r="US40" s="1"/>
+      <c r="UT40" s="1"/>
+      <c r="UU40" s="1"/>
+      <c r="UV40" s="1"/>
+      <c r="UW40" s="1"/>
+      <c r="UX40" s="1"/>
+      <c r="UY40" s="1"/>
+      <c r="UZ40" s="1"/>
+      <c r="VA40" s="1"/>
+      <c r="VB40" s="1"/>
+      <c r="VC40" s="1"/>
+      <c r="VD40" s="1"/>
+      <c r="VE40" s="1"/>
+      <c r="VF40" s="1"/>
+      <c r="VG40" s="1"/>
+      <c r="VH40" s="1"/>
+      <c r="VI40" s="1"/>
+      <c r="VJ40" s="1"/>
+      <c r="VK40" s="1"/>
+      <c r="VL40" s="1"/>
+      <c r="VM40" s="1"/>
+      <c r="VN40" s="1"/>
+      <c r="VO40" s="1"/>
+      <c r="VP40" s="1"/>
+      <c r="VQ40" s="1"/>
+      <c r="VR40" s="1"/>
+      <c r="VS40" s="1"/>
+      <c r="VT40" s="1"/>
+      <c r="VU40" s="1"/>
+      <c r="VV40" s="1"/>
+      <c r="VW40" s="1"/>
+      <c r="VX40" s="1"/>
+      <c r="VY40" s="1"/>
+      <c r="VZ40" s="1"/>
+      <c r="WA40" s="1"/>
+      <c r="WB40" s="1"/>
+      <c r="WC40" s="1"/>
+      <c r="WD40" s="1"/>
+      <c r="WE40" s="1"/>
+      <c r="WF40" s="1"/>
+      <c r="WG40" s="1"/>
+      <c r="WH40" s="1"/>
+      <c r="WI40" s="1"/>
+      <c r="WJ40" s="1"/>
+      <c r="WK40" s="1"/>
+      <c r="WL40" s="1"/>
+      <c r="WM40" s="1"/>
+      <c r="WN40" s="1"/>
+      <c r="WO40" s="1"/>
+      <c r="WP40" s="1"/>
+      <c r="WQ40" s="1"/>
+      <c r="WR40" s="1"/>
+      <c r="WS40" s="1"/>
+      <c r="WT40" s="1"/>
+      <c r="WU40" s="1"/>
+      <c r="WV40" s="1"/>
+      <c r="WW40" s="1"/>
+      <c r="WX40" s="1"/>
+      <c r="WY40" s="1"/>
+      <c r="WZ40" s="1"/>
+      <c r="XA40" s="1"/>
+      <c r="XB40" s="1"/>
+      <c r="XC40" s="1"/>
+      <c r="XD40" s="1"/>
+      <c r="XE40" s="1"/>
+      <c r="XF40" s="1"/>
+      <c r="XG40" s="1"/>
+      <c r="XH40" s="1"/>
+      <c r="XI40" s="1"/>
+      <c r="XJ40" s="1"/>
+      <c r="XK40" s="1"/>
+      <c r="XL40" s="1"/>
+      <c r="XM40" s="1"/>
+      <c r="XN40" s="1"/>
+      <c r="XO40" s="1"/>
+      <c r="XP40" s="1"/>
+      <c r="XQ40" s="1"/>
+      <c r="XR40" s="1"/>
+      <c r="XS40" s="1"/>
+      <c r="XT40" s="1"/>
+      <c r="XU40" s="1"/>
+      <c r="XV40" s="1"/>
+      <c r="XW40" s="1"/>
+      <c r="XX40" s="1"/>
+      <c r="XY40" s="1"/>
+      <c r="XZ40" s="1"/>
+      <c r="YA40" s="1"/>
+      <c r="YB40" s="1"/>
+      <c r="YC40" s="1"/>
+      <c r="YD40" s="1"/>
+      <c r="YE40" s="1"/>
+      <c r="YF40" s="1"/>
+      <c r="YG40" s="1"/>
+      <c r="YH40" s="1"/>
+      <c r="YI40" s="1"/>
+      <c r="YJ40" s="1"/>
+      <c r="YK40" s="1"/>
+      <c r="YL40" s="1"/>
+      <c r="YM40" s="1"/>
+      <c r="YN40" s="1"/>
+      <c r="YO40" s="1"/>
+      <c r="YP40" s="1"/>
+      <c r="YQ40" s="1"/>
+      <c r="YR40" s="1"/>
+      <c r="YS40" s="1"/>
+      <c r="YT40" s="1"/>
+      <c r="YU40" s="1"/>
+      <c r="YV40" s="1"/>
+      <c r="YW40" s="1"/>
+      <c r="YX40" s="1"/>
+      <c r="YY40" s="1"/>
+      <c r="YZ40" s="1"/>
+      <c r="ZA40" s="1"/>
+      <c r="ZB40" s="1"/>
+      <c r="ZC40" s="1"/>
+      <c r="ZD40" s="1"/>
+      <c r="ZE40" s="1"/>
+      <c r="ZF40" s="1"/>
+      <c r="ZG40" s="1"/>
+      <c r="ZH40" s="1"/>
+      <c r="ZI40" s="1"/>
+      <c r="ZJ40" s="1"/>
+      <c r="ZK40" s="1"/>
+      <c r="ZL40" s="1"/>
+      <c r="ZM40" s="1"/>
+      <c r="ZN40" s="1"/>
+      <c r="ZO40" s="1"/>
+      <c r="ZP40" s="1"/>
+      <c r="ZQ40" s="1"/>
+      <c r="ZR40" s="1"/>
+      <c r="ZS40" s="1"/>
+      <c r="ZT40" s="1"/>
+      <c r="ZU40" s="1"/>
+      <c r="ZV40" s="1"/>
+      <c r="ZW40" s="1"/>
+      <c r="ZX40" s="1"/>
+      <c r="ZY40" s="1"/>
+      <c r="ZZ40" s="1"/>
+      <c r="AAA40" s="1"/>
+      <c r="AAB40" s="1"/>
+      <c r="AAC40" s="1"/>
+      <c r="AAD40" s="1"/>
+      <c r="AAE40" s="1"/>
+      <c r="AAF40" s="1"/>
+      <c r="AAG40" s="1"/>
+      <c r="AAH40" s="1"/>
+      <c r="AAI40" s="1"/>
+      <c r="AAJ40" s="1"/>
+      <c r="AAK40" s="1"/>
+      <c r="AAL40" s="1"/>
+      <c r="AAM40" s="1"/>
+      <c r="AAN40" s="1"/>
+      <c r="AAO40" s="1"/>
+      <c r="AAP40" s="1"/>
+      <c r="AAQ40" s="1"/>
+      <c r="AAR40" s="1"/>
+      <c r="AAS40" s="1"/>
+      <c r="AAT40" s="1"/>
+      <c r="AAU40" s="1"/>
+      <c r="AAV40" s="1"/>
+      <c r="AAW40" s="1"/>
+      <c r="AAX40" s="1"/>
+      <c r="AAY40" s="1"/>
+      <c r="AAZ40" s="1"/>
+      <c r="ABA40" s="1"/>
+      <c r="ABB40" s="1"/>
+      <c r="ABC40" s="1"/>
+      <c r="ABD40" s="1"/>
+      <c r="ABE40" s="1"/>
+      <c r="ABF40" s="1"/>
+      <c r="ABG40" s="1"/>
+      <c r="ABH40" s="1"/>
+      <c r="ABI40" s="1"/>
+      <c r="ABJ40" s="1"/>
+      <c r="ABK40" s="1"/>
+      <c r="ABL40" s="1"/>
+      <c r="ABM40" s="1"/>
+      <c r="ABN40" s="1"/>
+      <c r="ABO40" s="1"/>
+      <c r="ABP40" s="1"/>
+      <c r="ABQ40" s="1"/>
+      <c r="ABR40" s="1"/>
+      <c r="ABS40" s="1"/>
+      <c r="ABT40" s="1"/>
+      <c r="ABU40" s="1"/>
+      <c r="ABV40" s="1"/>
+      <c r="ABW40" s="1"/>
+      <c r="ABX40" s="1"/>
+      <c r="ABY40" s="1"/>
+      <c r="ABZ40" s="1"/>
+      <c r="ACA40" s="1"/>
+      <c r="ACB40" s="1"/>
+      <c r="ACC40" s="1"/>
+      <c r="ACD40" s="1"/>
+      <c r="ACE40" s="1"/>
+      <c r="ACF40" s="1"/>
+      <c r="ACG40" s="1"/>
+      <c r="ACH40" s="1"/>
+      <c r="ACI40" s="1"/>
+      <c r="ACJ40" s="1"/>
+      <c r="ACK40" s="1"/>
+      <c r="ACL40" s="1"/>
+      <c r="ACM40" s="1"/>
+      <c r="ACN40" s="1"/>
+      <c r="ACO40" s="1"/>
+      <c r="ACP40" s="1"/>
+      <c r="ACQ40" s="1"/>
+      <c r="ACR40" s="1"/>
+      <c r="ACS40" s="1"/>
+      <c r="ACT40" s="1"/>
+      <c r="ACU40" s="1"/>
+      <c r="ACV40" s="1"/>
+      <c r="ACW40" s="1"/>
+      <c r="ACX40" s="1"/>
+      <c r="ACY40" s="1"/>
+      <c r="ACZ40" s="1"/>
+      <c r="ADA40" s="1"/>
+      <c r="ADB40" s="1"/>
+      <c r="ADC40" s="1"/>
+      <c r="ADD40" s="1"/>
+      <c r="ADE40" s="1"/>
+      <c r="ADF40" s="1"/>
+      <c r="ADG40" s="1"/>
+      <c r="ADH40" s="1"/>
+      <c r="ADI40" s="1"/>
+      <c r="ADJ40" s="1"/>
+      <c r="ADK40" s="1"/>
+      <c r="ADL40" s="1"/>
+      <c r="ADM40" s="1"/>
+      <c r="ADN40" s="1"/>
+      <c r="ADO40" s="1"/>
+      <c r="ADP40" s="1"/>
+      <c r="ADQ40" s="1"/>
+      <c r="ADR40" s="1"/>
+      <c r="ADS40" s="1"/>
+      <c r="ADT40" s="1"/>
+      <c r="ADU40" s="1"/>
+      <c r="ADV40" s="1"/>
+      <c r="ADW40" s="1"/>
+      <c r="ADX40" s="1"/>
+      <c r="ADY40" s="1"/>
+      <c r="ADZ40" s="1"/>
+      <c r="AEA40" s="1"/>
+      <c r="AEB40" s="1"/>
+      <c r="AEC40" s="1"/>
+      <c r="AED40" s="1"/>
+      <c r="AEE40" s="1"/>
+      <c r="AEF40" s="1"/>
+      <c r="AEG40" s="1"/>
+      <c r="AEH40" s="1"/>
+      <c r="AEI40" s="1"/>
+      <c r="AEJ40" s="1"/>
+      <c r="AEK40" s="1"/>
+      <c r="AEL40" s="1"/>
+      <c r="AEM40" s="1"/>
+      <c r="AEN40" s="1"/>
+      <c r="AEO40" s="1"/>
+      <c r="AEP40" s="1"/>
+      <c r="AEQ40" s="1"/>
+      <c r="AER40" s="1"/>
+      <c r="AES40" s="1"/>
+      <c r="AET40" s="1"/>
+      <c r="AEU40" s="1"/>
+      <c r="AEV40" s="1"/>
+      <c r="AEW40" s="1"/>
+      <c r="AEX40" s="1"/>
+      <c r="AEY40" s="1"/>
+      <c r="AEZ40" s="1"/>
+      <c r="AFA40" s="1"/>
+      <c r="AFB40" s="1"/>
+      <c r="AFC40" s="1"/>
+      <c r="AFD40" s="1"/>
+      <c r="AFE40" s="1"/>
+      <c r="AFF40" s="1"/>
+      <c r="AFG40" s="1"/>
+      <c r="AFH40" s="1"/>
+      <c r="AFI40" s="1"/>
+      <c r="AFJ40" s="1"/>
+      <c r="AFK40" s="1"/>
+      <c r="AFL40" s="1"/>
+      <c r="AFM40" s="1"/>
+      <c r="AFN40" s="1"/>
+      <c r="AFO40" s="1"/>
+      <c r="AFP40" s="1"/>
+      <c r="AFQ40" s="1"/>
+      <c r="AFR40" s="1"/>
+      <c r="AFS40" s="1"/>
+      <c r="AFT40" s="1"/>
+      <c r="AFU40" s="1"/>
+      <c r="AFV40" s="1"/>
+      <c r="AFW40" s="1"/>
+      <c r="AFX40" s="1"/>
+      <c r="AFY40" s="1"/>
+      <c r="AFZ40" s="1"/>
+      <c r="AGA40" s="1"/>
+      <c r="AGB40" s="1"/>
+      <c r="AGC40" s="1"/>
+      <c r="AGD40" s="1"/>
+      <c r="AGE40" s="1"/>
+      <c r="AGF40" s="1"/>
+      <c r="AGG40" s="1"/>
+      <c r="AGH40" s="1"/>
+      <c r="AGI40" s="1"/>
+      <c r="AGJ40" s="1"/>
+      <c r="AGK40" s="1"/>
+      <c r="AGL40" s="1"/>
+      <c r="AGM40" s="1"/>
+      <c r="AGN40" s="1"/>
+      <c r="AGO40" s="1"/>
+      <c r="AGP40" s="1"/>
+      <c r="AGQ40" s="1"/>
+      <c r="AGR40" s="1"/>
+      <c r="AGS40" s="1"/>
+      <c r="AGT40" s="1"/>
+      <c r="AGU40" s="1"/>
+      <c r="AGV40" s="1"/>
+      <c r="AGW40" s="1"/>
+      <c r="AGX40" s="1"/>
+      <c r="AGY40" s="1"/>
+      <c r="AGZ40" s="1"/>
+      <c r="AHA40" s="1"/>
+      <c r="AHB40" s="1"/>
+      <c r="AHC40" s="1"/>
+      <c r="AHD40" s="1"/>
+      <c r="AHE40" s="1"/>
+      <c r="AHF40" s="1"/>
+      <c r="AHG40" s="1"/>
+      <c r="AHH40" s="1"/>
+      <c r="AHI40" s="1"/>
+      <c r="AHJ40" s="1"/>
+      <c r="AHK40" s="1"/>
+      <c r="AHL40" s="1"/>
+      <c r="AHM40" s="1"/>
+      <c r="AHN40" s="1"/>
+      <c r="AHO40" s="1"/>
+      <c r="AHP40" s="1"/>
+      <c r="AHQ40" s="1"/>
+      <c r="AHR40" s="1"/>
+      <c r="AHS40" s="1"/>
+      <c r="AHT40" s="1"/>
+      <c r="AHU40" s="1"/>
+      <c r="AHV40" s="1"/>
+      <c r="AHW40" s="1"/>
+      <c r="AHX40" s="1"/>
+      <c r="AHY40" s="1"/>
+      <c r="AHZ40" s="1"/>
+      <c r="AIA40" s="1"/>
+      <c r="AIB40" s="1"/>
+      <c r="AIC40" s="1"/>
+      <c r="AID40" s="1"/>
+      <c r="AIE40" s="1"/>
+      <c r="AIF40" s="1"/>
+      <c r="AIG40" s="1"/>
+      <c r="AIH40" s="1"/>
+      <c r="AII40" s="1"/>
+      <c r="AIJ40" s="1"/>
+      <c r="AIK40" s="1"/>
+      <c r="AIL40" s="1"/>
+      <c r="AIM40" s="1"/>
+      <c r="AIN40" s="1"/>
+      <c r="AIO40" s="1"/>
+      <c r="AIP40" s="1"/>
+      <c r="AIQ40" s="1"/>
+      <c r="AIR40" s="1"/>
+      <c r="AIS40" s="1"/>
+      <c r="AIT40" s="1"/>
+      <c r="AIU40" s="1"/>
+      <c r="AIV40" s="1"/>
+      <c r="AIW40" s="1"/>
+      <c r="AIX40" s="1"/>
+      <c r="AIY40" s="1"/>
+      <c r="AIZ40" s="1"/>
+      <c r="AJA40" s="1"/>
+      <c r="AJB40" s="1"/>
+      <c r="AJC40" s="1"/>
+      <c r="AJD40" s="1"/>
+      <c r="AJE40" s="1"/>
+      <c r="AJF40" s="1"/>
+      <c r="AJG40" s="1"/>
+      <c r="AJH40" s="1"/>
+      <c r="AJI40" s="1"/>
+      <c r="AJJ40" s="1"/>
+      <c r="AJK40" s="1"/>
+      <c r="AJL40" s="1"/>
+      <c r="AJM40" s="1"/>
+      <c r="AJN40" s="1"/>
+      <c r="AJO40" s="1"/>
+      <c r="AJP40" s="1"/>
+      <c r="AJQ40" s="1"/>
+      <c r="AJR40" s="1"/>
+      <c r="AJS40" s="1"/>
+      <c r="AJT40" s="1"/>
+      <c r="AJU40" s="1"/>
+      <c r="AJV40" s="1"/>
+      <c r="AJW40" s="1"/>
+      <c r="AJX40" s="1"/>
+      <c r="AJY40" s="1"/>
+      <c r="AJZ40" s="1"/>
+      <c r="AKA40" s="1"/>
+      <c r="AKB40" s="1"/>
+      <c r="AKC40" s="1"/>
+      <c r="AKD40" s="1"/>
+      <c r="AKE40" s="1"/>
+      <c r="AKF40" s="1"/>
+      <c r="AKG40" s="1"/>
+      <c r="AKH40" s="1"/>
+      <c r="AKI40" s="1"/>
+      <c r="AKJ40" s="1"/>
+      <c r="AKK40" s="1"/>
+      <c r="AKL40" s="1"/>
+      <c r="AKM40" s="1"/>
+      <c r="AKN40" s="1"/>
+      <c r="AKO40" s="1"/>
+      <c r="AKP40" s="1"/>
+      <c r="AKQ40" s="1"/>
+      <c r="AKR40" s="1"/>
+      <c r="AKS40" s="1"/>
+      <c r="AKT40" s="1"/>
+      <c r="AKU40" s="1"/>
+      <c r="AKV40" s="1"/>
+      <c r="AKW40" s="1"/>
+      <c r="AKX40" s="1"/>
+      <c r="AKY40" s="1"/>
+      <c r="AKZ40" s="1"/>
+      <c r="ALA40" s="1"/>
+      <c r="ALB40" s="1"/>
+      <c r="ALC40" s="1"/>
+      <c r="ALD40" s="1"/>
+      <c r="ALE40" s="1"/>
+      <c r="ALF40" s="1"/>
+      <c r="ALG40" s="1"/>
+      <c r="ALH40" s="1"/>
+      <c r="ALI40" s="1"/>
+      <c r="ALJ40" s="1"/>
+      <c r="ALK40" s="1"/>
+      <c r="ALL40" s="1"/>
+      <c r="ALM40" s="1"/>
+      <c r="ALN40" s="1"/>
+      <c r="ALO40" s="1"/>
+      <c r="ALP40" s="1"/>
+      <c r="ALQ40" s="1"/>
+      <c r="ALR40" s="1"/>
+      <c r="ALS40" s="1"/>
+      <c r="ALT40" s="1"/>
+      <c r="ALU40" s="1"/>
+      <c r="ALV40" s="1"/>
+      <c r="ALW40" s="1"/>
+      <c r="ALX40" s="1"/>
+      <c r="ALY40" s="1"/>
+      <c r="ALZ40" s="1"/>
+      <c r="AMA40" s="1"/>
+      <c r="AMB40" s="1"/>
+      <c r="AMC40" s="1"/>
+      <c r="AMD40" s="1"/>
+      <c r="AME40" s="1"/>
+      <c r="AMF40" s="1"/>
+      <c r="AMG40" s="1"/>
+      <c r="AMH40" s="1"/>
+      <c r="AMI40" s="1"/>
+      <c r="AMJ40" s="1"/>
+      <c r="AMK40" s="1"/>
     </row>
-    <row r="41" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A41" s="27"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="38"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="49"/>
+    <row r="41" spans="1:1025" customFormat="1" ht="16.5">
+      <c r="A41" s="16">
+        <v>40</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" s="56" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="57">
+        <v>42514</v>
+      </c>
+      <c r="G41" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" s="57">
+        <v>42514</v>
+      </c>
+      <c r="I41" s="56"/>
+      <c r="J41" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="K41" s="56" t="s">
+        <v>217</v>
+      </c>
+      <c r="L41" s="56"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="58"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="59"/>
+      <c r="R41" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41" s="60"/>
+      <c r="T41" s="61"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
+      <c r="CC41" s="1"/>
+      <c r="CD41" s="1"/>
+      <c r="CE41" s="1"/>
+      <c r="CF41" s="1"/>
+      <c r="CG41" s="1"/>
+      <c r="CH41" s="1"/>
+      <c r="CI41" s="1"/>
+      <c r="CJ41" s="1"/>
+      <c r="CK41" s="1"/>
+      <c r="CL41" s="1"/>
+      <c r="CM41" s="1"/>
+      <c r="CN41" s="1"/>
+      <c r="CO41" s="1"/>
+      <c r="CP41" s="1"/>
+      <c r="CQ41" s="1"/>
+      <c r="CR41" s="1"/>
+      <c r="CS41" s="1"/>
+      <c r="CT41" s="1"/>
+      <c r="CU41" s="1"/>
+      <c r="CV41" s="1"/>
+      <c r="CW41" s="1"/>
+      <c r="CX41" s="1"/>
+      <c r="CY41" s="1"/>
+      <c r="CZ41" s="1"/>
+      <c r="DA41" s="1"/>
+      <c r="DB41" s="1"/>
+      <c r="DC41" s="1"/>
+      <c r="DD41" s="1"/>
+      <c r="DE41" s="1"/>
+      <c r="DF41" s="1"/>
+      <c r="DG41" s="1"/>
+      <c r="DH41" s="1"/>
+      <c r="DI41" s="1"/>
+      <c r="DJ41" s="1"/>
+      <c r="DK41" s="1"/>
+      <c r="DL41" s="1"/>
+      <c r="DM41" s="1"/>
+      <c r="DN41" s="1"/>
+      <c r="DO41" s="1"/>
+      <c r="DP41" s="1"/>
+      <c r="DQ41" s="1"/>
+      <c r="DR41" s="1"/>
+      <c r="DS41" s="1"/>
+      <c r="DT41" s="1"/>
+      <c r="DU41" s="1"/>
+      <c r="DV41" s="1"/>
+      <c r="DW41" s="1"/>
+      <c r="DX41" s="1"/>
+      <c r="DY41" s="1"/>
+      <c r="DZ41" s="1"/>
+      <c r="EA41" s="1"/>
+      <c r="EB41" s="1"/>
+      <c r="EC41" s="1"/>
+      <c r="ED41" s="1"/>
+      <c r="EE41" s="1"/>
+      <c r="EF41" s="1"/>
+      <c r="EG41" s="1"/>
+      <c r="EH41" s="1"/>
+      <c r="EI41" s="1"/>
+      <c r="EJ41" s="1"/>
+      <c r="EK41" s="1"/>
+      <c r="EL41" s="1"/>
+      <c r="EM41" s="1"/>
+      <c r="EN41" s="1"/>
+      <c r="EO41" s="1"/>
+      <c r="EP41" s="1"/>
+      <c r="EQ41" s="1"/>
+      <c r="ER41" s="1"/>
+      <c r="ES41" s="1"/>
+      <c r="ET41" s="1"/>
+      <c r="EU41" s="1"/>
+      <c r="EV41" s="1"/>
+      <c r="EW41" s="1"/>
+      <c r="EX41" s="1"/>
+      <c r="EY41" s="1"/>
+      <c r="EZ41" s="1"/>
+      <c r="FA41" s="1"/>
+      <c r="FB41" s="1"/>
+      <c r="FC41" s="1"/>
+      <c r="FD41" s="1"/>
+      <c r="FE41" s="1"/>
+      <c r="FF41" s="1"/>
+      <c r="FG41" s="1"/>
+      <c r="FH41" s="1"/>
+      <c r="FI41" s="1"/>
+      <c r="FJ41" s="1"/>
+      <c r="FK41" s="1"/>
+      <c r="FL41" s="1"/>
+      <c r="FM41" s="1"/>
+      <c r="FN41" s="1"/>
+      <c r="FO41" s="1"/>
+      <c r="FP41" s="1"/>
+      <c r="FQ41" s="1"/>
+      <c r="FR41" s="1"/>
+      <c r="FS41" s="1"/>
+      <c r="FT41" s="1"/>
+      <c r="FU41" s="1"/>
+      <c r="FV41" s="1"/>
+      <c r="FW41" s="1"/>
+      <c r="FX41" s="1"/>
+      <c r="FY41" s="1"/>
+      <c r="FZ41" s="1"/>
+      <c r="GA41" s="1"/>
+      <c r="GB41" s="1"/>
+      <c r="GC41" s="1"/>
+      <c r="GD41" s="1"/>
+      <c r="GE41" s="1"/>
+      <c r="GF41" s="1"/>
+      <c r="GG41" s="1"/>
+      <c r="GH41" s="1"/>
+      <c r="GI41" s="1"/>
+      <c r="GJ41" s="1"/>
+      <c r="GK41" s="1"/>
+      <c r="GL41" s="1"/>
+      <c r="GM41" s="1"/>
+      <c r="GN41" s="1"/>
+      <c r="GO41" s="1"/>
+      <c r="GP41" s="1"/>
+      <c r="GQ41" s="1"/>
+      <c r="GR41" s="1"/>
+      <c r="GS41" s="1"/>
+      <c r="GT41" s="1"/>
+      <c r="GU41" s="1"/>
+      <c r="GV41" s="1"/>
+      <c r="GW41" s="1"/>
+      <c r="GX41" s="1"/>
+      <c r="GY41" s="1"/>
+      <c r="GZ41" s="1"/>
+      <c r="HA41" s="1"/>
+      <c r="HB41" s="1"/>
+      <c r="HC41" s="1"/>
+      <c r="HD41" s="1"/>
+      <c r="HE41" s="1"/>
+      <c r="HF41" s="1"/>
+      <c r="HG41" s="1"/>
+      <c r="HH41" s="1"/>
+      <c r="HI41" s="1"/>
+      <c r="HJ41" s="1"/>
+      <c r="HK41" s="1"/>
+      <c r="HL41" s="1"/>
+      <c r="HM41" s="1"/>
+      <c r="HN41" s="1"/>
+      <c r="HO41" s="1"/>
+      <c r="HP41" s="1"/>
+      <c r="HQ41" s="1"/>
+      <c r="HR41" s="1"/>
+      <c r="HS41" s="1"/>
+      <c r="HT41" s="1"/>
+      <c r="HU41" s="1"/>
+      <c r="HV41" s="1"/>
+      <c r="HW41" s="1"/>
+      <c r="HX41" s="1"/>
+      <c r="HY41" s="1"/>
+      <c r="HZ41" s="1"/>
+      <c r="IA41" s="1"/>
+      <c r="IB41" s="1"/>
+      <c r="IC41" s="1"/>
+      <c r="ID41" s="1"/>
+      <c r="IE41" s="1"/>
+      <c r="IF41" s="1"/>
+      <c r="IG41" s="1"/>
+      <c r="IH41" s="1"/>
+      <c r="II41" s="1"/>
+      <c r="IJ41" s="1"/>
+      <c r="IK41" s="1"/>
+      <c r="IL41" s="1"/>
+      <c r="IM41" s="1"/>
+      <c r="IN41" s="1"/>
+      <c r="IO41" s="1"/>
+      <c r="IP41" s="1"/>
+      <c r="IQ41" s="1"/>
+      <c r="IR41" s="1"/>
+      <c r="IS41" s="1"/>
+      <c r="IT41" s="1"/>
+      <c r="IU41" s="1"/>
+      <c r="IV41" s="1"/>
+      <c r="IW41" s="1"/>
+      <c r="IX41" s="1"/>
+      <c r="IY41" s="1"/>
+      <c r="IZ41" s="1"/>
+      <c r="JA41" s="1"/>
+      <c r="JB41" s="1"/>
+      <c r="JC41" s="1"/>
+      <c r="JD41" s="1"/>
+      <c r="JE41" s="1"/>
+      <c r="JF41" s="1"/>
+      <c r="JG41" s="1"/>
+      <c r="JH41" s="1"/>
+      <c r="JI41" s="1"/>
+      <c r="JJ41" s="1"/>
+      <c r="JK41" s="1"/>
+      <c r="JL41" s="1"/>
+      <c r="JM41" s="1"/>
+      <c r="JN41" s="1"/>
+      <c r="JO41" s="1"/>
+      <c r="JP41" s="1"/>
+      <c r="JQ41" s="1"/>
+      <c r="JR41" s="1"/>
+      <c r="JS41" s="1"/>
+      <c r="JT41" s="1"/>
+      <c r="JU41" s="1"/>
+      <c r="JV41" s="1"/>
+      <c r="JW41" s="1"/>
+      <c r="JX41" s="1"/>
+      <c r="JY41" s="1"/>
+      <c r="JZ41" s="1"/>
+      <c r="KA41" s="1"/>
+      <c r="KB41" s="1"/>
+      <c r="KC41" s="1"/>
+      <c r="KD41" s="1"/>
+      <c r="KE41" s="1"/>
+      <c r="KF41" s="1"/>
+      <c r="KG41" s="1"/>
+      <c r="KH41" s="1"/>
+      <c r="KI41" s="1"/>
+      <c r="KJ41" s="1"/>
+      <c r="KK41" s="1"/>
+      <c r="KL41" s="1"/>
+      <c r="KM41" s="1"/>
+      <c r="KN41" s="1"/>
+      <c r="KO41" s="1"/>
+      <c r="KP41" s="1"/>
+      <c r="KQ41" s="1"/>
+      <c r="KR41" s="1"/>
+      <c r="KS41" s="1"/>
+      <c r="KT41" s="1"/>
+      <c r="KU41" s="1"/>
+      <c r="KV41" s="1"/>
+      <c r="KW41" s="1"/>
+      <c r="KX41" s="1"/>
+      <c r="KY41" s="1"/>
+      <c r="KZ41" s="1"/>
+      <c r="LA41" s="1"/>
+      <c r="LB41" s="1"/>
+      <c r="LC41" s="1"/>
+      <c r="LD41" s="1"/>
+      <c r="LE41" s="1"/>
+      <c r="LF41" s="1"/>
+      <c r="LG41" s="1"/>
+      <c r="LH41" s="1"/>
+      <c r="LI41" s="1"/>
+      <c r="LJ41" s="1"/>
+      <c r="LK41" s="1"/>
+      <c r="LL41" s="1"/>
+      <c r="LM41" s="1"/>
+      <c r="LN41" s="1"/>
+      <c r="LO41" s="1"/>
+      <c r="LP41" s="1"/>
+      <c r="LQ41" s="1"/>
+      <c r="LR41" s="1"/>
+      <c r="LS41" s="1"/>
+      <c r="LT41" s="1"/>
+      <c r="LU41" s="1"/>
+      <c r="LV41" s="1"/>
+      <c r="LW41" s="1"/>
+      <c r="LX41" s="1"/>
+      <c r="LY41" s="1"/>
+      <c r="LZ41" s="1"/>
+      <c r="MA41" s="1"/>
+      <c r="MB41" s="1"/>
+      <c r="MC41" s="1"/>
+      <c r="MD41" s="1"/>
+      <c r="ME41" s="1"/>
+      <c r="MF41" s="1"/>
+      <c r="MG41" s="1"/>
+      <c r="MH41" s="1"/>
+      <c r="MI41" s="1"/>
+      <c r="MJ41" s="1"/>
+      <c r="MK41" s="1"/>
+      <c r="ML41" s="1"/>
+      <c r="MM41" s="1"/>
+      <c r="MN41" s="1"/>
+      <c r="MO41" s="1"/>
+      <c r="MP41" s="1"/>
+      <c r="MQ41" s="1"/>
+      <c r="MR41" s="1"/>
+      <c r="MS41" s="1"/>
+      <c r="MT41" s="1"/>
+      <c r="MU41" s="1"/>
+      <c r="MV41" s="1"/>
+      <c r="MW41" s="1"/>
+      <c r="MX41" s="1"/>
+      <c r="MY41" s="1"/>
+      <c r="MZ41" s="1"/>
+      <c r="NA41" s="1"/>
+      <c r="NB41" s="1"/>
+      <c r="NC41" s="1"/>
+      <c r="ND41" s="1"/>
+      <c r="NE41" s="1"/>
+      <c r="NF41" s="1"/>
+      <c r="NG41" s="1"/>
+      <c r="NH41" s="1"/>
+      <c r="NI41" s="1"/>
+      <c r="NJ41" s="1"/>
+      <c r="NK41" s="1"/>
+      <c r="NL41" s="1"/>
+      <c r="NM41" s="1"/>
+      <c r="NN41" s="1"/>
+      <c r="NO41" s="1"/>
+      <c r="NP41" s="1"/>
+      <c r="NQ41" s="1"/>
+      <c r="NR41" s="1"/>
+      <c r="NS41" s="1"/>
+      <c r="NT41" s="1"/>
+      <c r="NU41" s="1"/>
+      <c r="NV41" s="1"/>
+      <c r="NW41" s="1"/>
+      <c r="NX41" s="1"/>
+      <c r="NY41" s="1"/>
+      <c r="NZ41" s="1"/>
+      <c r="OA41" s="1"/>
+      <c r="OB41" s="1"/>
+      <c r="OC41" s="1"/>
+      <c r="OD41" s="1"/>
+      <c r="OE41" s="1"/>
+      <c r="OF41" s="1"/>
+      <c r="OG41" s="1"/>
+      <c r="OH41" s="1"/>
+      <c r="OI41" s="1"/>
+      <c r="OJ41" s="1"/>
+      <c r="OK41" s="1"/>
+      <c r="OL41" s="1"/>
+      <c r="OM41" s="1"/>
+      <c r="ON41" s="1"/>
+      <c r="OO41" s="1"/>
+      <c r="OP41" s="1"/>
+      <c r="OQ41" s="1"/>
+      <c r="OR41" s="1"/>
+      <c r="OS41" s="1"/>
+      <c r="OT41" s="1"/>
+      <c r="OU41" s="1"/>
+      <c r="OV41" s="1"/>
+      <c r="OW41" s="1"/>
+      <c r="OX41" s="1"/>
+      <c r="OY41" s="1"/>
+      <c r="OZ41" s="1"/>
+      <c r="PA41" s="1"/>
+      <c r="PB41" s="1"/>
+      <c r="PC41" s="1"/>
+      <c r="PD41" s="1"/>
+      <c r="PE41" s="1"/>
+      <c r="PF41" s="1"/>
+      <c r="PG41" s="1"/>
+      <c r="PH41" s="1"/>
+      <c r="PI41" s="1"/>
+      <c r="PJ41" s="1"/>
+      <c r="PK41" s="1"/>
+      <c r="PL41" s="1"/>
+      <c r="PM41" s="1"/>
+      <c r="PN41" s="1"/>
+      <c r="PO41" s="1"/>
+      <c r="PP41" s="1"/>
+      <c r="PQ41" s="1"/>
+      <c r="PR41" s="1"/>
+      <c r="PS41" s="1"/>
+      <c r="PT41" s="1"/>
+      <c r="PU41" s="1"/>
+      <c r="PV41" s="1"/>
+      <c r="PW41" s="1"/>
+      <c r="PX41" s="1"/>
+      <c r="PY41" s="1"/>
+      <c r="PZ41" s="1"/>
+      <c r="QA41" s="1"/>
+      <c r="QB41" s="1"/>
+      <c r="QC41" s="1"/>
+      <c r="QD41" s="1"/>
+      <c r="QE41" s="1"/>
+      <c r="QF41" s="1"/>
+      <c r="QG41" s="1"/>
+      <c r="QH41" s="1"/>
+      <c r="QI41" s="1"/>
+      <c r="QJ41" s="1"/>
+      <c r="QK41" s="1"/>
+      <c r="QL41" s="1"/>
+      <c r="QM41" s="1"/>
+      <c r="QN41" s="1"/>
+      <c r="QO41" s="1"/>
+      <c r="QP41" s="1"/>
+      <c r="QQ41" s="1"/>
+      <c r="QR41" s="1"/>
+      <c r="QS41" s="1"/>
+      <c r="QT41" s="1"/>
+      <c r="QU41" s="1"/>
+      <c r="QV41" s="1"/>
+      <c r="QW41" s="1"/>
+      <c r="QX41" s="1"/>
+      <c r="QY41" s="1"/>
+      <c r="QZ41" s="1"/>
+      <c r="RA41" s="1"/>
+      <c r="RB41" s="1"/>
+      <c r="RC41" s="1"/>
+      <c r="RD41" s="1"/>
+      <c r="RE41" s="1"/>
+      <c r="RF41" s="1"/>
+      <c r="RG41" s="1"/>
+      <c r="RH41" s="1"/>
+      <c r="RI41" s="1"/>
+      <c r="RJ41" s="1"/>
+      <c r="RK41" s="1"/>
+      <c r="RL41" s="1"/>
+      <c r="RM41" s="1"/>
+      <c r="RN41" s="1"/>
+      <c r="RO41" s="1"/>
+      <c r="RP41" s="1"/>
+      <c r="RQ41" s="1"/>
+      <c r="RR41" s="1"/>
+      <c r="RS41" s="1"/>
+      <c r="RT41" s="1"/>
+      <c r="RU41" s="1"/>
+      <c r="RV41" s="1"/>
+      <c r="RW41" s="1"/>
+      <c r="RX41" s="1"/>
+      <c r="RY41" s="1"/>
+      <c r="RZ41" s="1"/>
+      <c r="SA41" s="1"/>
+      <c r="SB41" s="1"/>
+      <c r="SC41" s="1"/>
+      <c r="SD41" s="1"/>
+      <c r="SE41" s="1"/>
+      <c r="SF41" s="1"/>
+      <c r="SG41" s="1"/>
+      <c r="SH41" s="1"/>
+      <c r="SI41" s="1"/>
+      <c r="SJ41" s="1"/>
+      <c r="SK41" s="1"/>
+      <c r="SL41" s="1"/>
+      <c r="SM41" s="1"/>
+      <c r="SN41" s="1"/>
+      <c r="SO41" s="1"/>
+      <c r="SP41" s="1"/>
+      <c r="SQ41" s="1"/>
+      <c r="SR41" s="1"/>
+      <c r="SS41" s="1"/>
+      <c r="ST41" s="1"/>
+      <c r="SU41" s="1"/>
+      <c r="SV41" s="1"/>
+      <c r="SW41" s="1"/>
+      <c r="SX41" s="1"/>
+      <c r="SY41" s="1"/>
+      <c r="SZ41" s="1"/>
+      <c r="TA41" s="1"/>
+      <c r="TB41" s="1"/>
+      <c r="TC41" s="1"/>
+      <c r="TD41" s="1"/>
+      <c r="TE41" s="1"/>
+      <c r="TF41" s="1"/>
+      <c r="TG41" s="1"/>
+      <c r="TH41" s="1"/>
+      <c r="TI41" s="1"/>
+      <c r="TJ41" s="1"/>
+      <c r="TK41" s="1"/>
+      <c r="TL41" s="1"/>
+      <c r="TM41" s="1"/>
+      <c r="TN41" s="1"/>
+      <c r="TO41" s="1"/>
+      <c r="TP41" s="1"/>
+      <c r="TQ41" s="1"/>
+      <c r="TR41" s="1"/>
+      <c r="TS41" s="1"/>
+      <c r="TT41" s="1"/>
+      <c r="TU41" s="1"/>
+      <c r="TV41" s="1"/>
+      <c r="TW41" s="1"/>
+      <c r="TX41" s="1"/>
+      <c r="TY41" s="1"/>
+      <c r="TZ41" s="1"/>
+      <c r="UA41" s="1"/>
+      <c r="UB41" s="1"/>
+      <c r="UC41" s="1"/>
+      <c r="UD41" s="1"/>
+      <c r="UE41" s="1"/>
+      <c r="UF41" s="1"/>
+      <c r="UG41" s="1"/>
+      <c r="UH41" s="1"/>
+      <c r="UI41" s="1"/>
+      <c r="UJ41" s="1"/>
+      <c r="UK41" s="1"/>
+      <c r="UL41" s="1"/>
+      <c r="UM41" s="1"/>
+      <c r="UN41" s="1"/>
+      <c r="UO41" s="1"/>
+      <c r="UP41" s="1"/>
+      <c r="UQ41" s="1"/>
+      <c r="UR41" s="1"/>
+      <c r="US41" s="1"/>
+      <c r="UT41" s="1"/>
+      <c r="UU41" s="1"/>
+      <c r="UV41" s="1"/>
+      <c r="UW41" s="1"/>
+      <c r="UX41" s="1"/>
+      <c r="UY41" s="1"/>
+      <c r="UZ41" s="1"/>
+      <c r="VA41" s="1"/>
+      <c r="VB41" s="1"/>
+      <c r="VC41" s="1"/>
+      <c r="VD41" s="1"/>
+      <c r="VE41" s="1"/>
+      <c r="VF41" s="1"/>
+      <c r="VG41" s="1"/>
+      <c r="VH41" s="1"/>
+      <c r="VI41" s="1"/>
+      <c r="VJ41" s="1"/>
+      <c r="VK41" s="1"/>
+      <c r="VL41" s="1"/>
+      <c r="VM41" s="1"/>
+      <c r="VN41" s="1"/>
+      <c r="VO41" s="1"/>
+      <c r="VP41" s="1"/>
+      <c r="VQ41" s="1"/>
+      <c r="VR41" s="1"/>
+      <c r="VS41" s="1"/>
+      <c r="VT41" s="1"/>
+      <c r="VU41" s="1"/>
+      <c r="VV41" s="1"/>
+      <c r="VW41" s="1"/>
+      <c r="VX41" s="1"/>
+      <c r="VY41" s="1"/>
+      <c r="VZ41" s="1"/>
+      <c r="WA41" s="1"/>
+      <c r="WB41" s="1"/>
+      <c r="WC41" s="1"/>
+      <c r="WD41" s="1"/>
+      <c r="WE41" s="1"/>
+      <c r="WF41" s="1"/>
+      <c r="WG41" s="1"/>
+      <c r="WH41" s="1"/>
+      <c r="WI41" s="1"/>
+      <c r="WJ41" s="1"/>
+      <c r="WK41" s="1"/>
+      <c r="WL41" s="1"/>
+      <c r="WM41" s="1"/>
+      <c r="WN41" s="1"/>
+      <c r="WO41" s="1"/>
+      <c r="WP41" s="1"/>
+      <c r="WQ41" s="1"/>
+      <c r="WR41" s="1"/>
+      <c r="WS41" s="1"/>
+      <c r="WT41" s="1"/>
+      <c r="WU41" s="1"/>
+      <c r="WV41" s="1"/>
+      <c r="WW41" s="1"/>
+      <c r="WX41" s="1"/>
+      <c r="WY41" s="1"/>
+      <c r="WZ41" s="1"/>
+      <c r="XA41" s="1"/>
+      <c r="XB41" s="1"/>
+      <c r="XC41" s="1"/>
+      <c r="XD41" s="1"/>
+      <c r="XE41" s="1"/>
+      <c r="XF41" s="1"/>
+      <c r="XG41" s="1"/>
+      <c r="XH41" s="1"/>
+      <c r="XI41" s="1"/>
+      <c r="XJ41" s="1"/>
+      <c r="XK41" s="1"/>
+      <c r="XL41" s="1"/>
+      <c r="XM41" s="1"/>
+      <c r="XN41" s="1"/>
+      <c r="XO41" s="1"/>
+      <c r="XP41" s="1"/>
+      <c r="XQ41" s="1"/>
+      <c r="XR41" s="1"/>
+      <c r="XS41" s="1"/>
+      <c r="XT41" s="1"/>
+      <c r="XU41" s="1"/>
+      <c r="XV41" s="1"/>
+      <c r="XW41" s="1"/>
+      <c r="XX41" s="1"/>
+      <c r="XY41" s="1"/>
+      <c r="XZ41" s="1"/>
+      <c r="YA41" s="1"/>
+      <c r="YB41" s="1"/>
+      <c r="YC41" s="1"/>
+      <c r="YD41" s="1"/>
+      <c r="YE41" s="1"/>
+      <c r="YF41" s="1"/>
+      <c r="YG41" s="1"/>
+      <c r="YH41" s="1"/>
+      <c r="YI41" s="1"/>
+      <c r="YJ41" s="1"/>
+      <c r="YK41" s="1"/>
+      <c r="YL41" s="1"/>
+      <c r="YM41" s="1"/>
+      <c r="YN41" s="1"/>
+      <c r="YO41" s="1"/>
+      <c r="YP41" s="1"/>
+      <c r="YQ41" s="1"/>
+      <c r="YR41" s="1"/>
+      <c r="YS41" s="1"/>
+      <c r="YT41" s="1"/>
+      <c r="YU41" s="1"/>
+      <c r="YV41" s="1"/>
+      <c r="YW41" s="1"/>
+      <c r="YX41" s="1"/>
+      <c r="YY41" s="1"/>
+      <c r="YZ41" s="1"/>
+      <c r="ZA41" s="1"/>
+      <c r="ZB41" s="1"/>
+      <c r="ZC41" s="1"/>
+      <c r="ZD41" s="1"/>
+      <c r="ZE41" s="1"/>
+      <c r="ZF41" s="1"/>
+      <c r="ZG41" s="1"/>
+      <c r="ZH41" s="1"/>
+      <c r="ZI41" s="1"/>
+      <c r="ZJ41" s="1"/>
+      <c r="ZK41" s="1"/>
+      <c r="ZL41" s="1"/>
+      <c r="ZM41" s="1"/>
+      <c r="ZN41" s="1"/>
+      <c r="ZO41" s="1"/>
+      <c r="ZP41" s="1"/>
+      <c r="ZQ41" s="1"/>
+      <c r="ZR41" s="1"/>
+      <c r="ZS41" s="1"/>
+      <c r="ZT41" s="1"/>
+      <c r="ZU41" s="1"/>
+      <c r="ZV41" s="1"/>
+      <c r="ZW41" s="1"/>
+      <c r="ZX41" s="1"/>
+      <c r="ZY41" s="1"/>
+      <c r="ZZ41" s="1"/>
+      <c r="AAA41" s="1"/>
+      <c r="AAB41" s="1"/>
+      <c r="AAC41" s="1"/>
+      <c r="AAD41" s="1"/>
+      <c r="AAE41" s="1"/>
+      <c r="AAF41" s="1"/>
+      <c r="AAG41" s="1"/>
+      <c r="AAH41" s="1"/>
+      <c r="AAI41" s="1"/>
+      <c r="AAJ41" s="1"/>
+      <c r="AAK41" s="1"/>
+      <c r="AAL41" s="1"/>
+      <c r="AAM41" s="1"/>
+      <c r="AAN41" s="1"/>
+      <c r="AAO41" s="1"/>
+      <c r="AAP41" s="1"/>
+      <c r="AAQ41" s="1"/>
+      <c r="AAR41" s="1"/>
+      <c r="AAS41" s="1"/>
+      <c r="AAT41" s="1"/>
+      <c r="AAU41" s="1"/>
+      <c r="AAV41" s="1"/>
+      <c r="AAW41" s="1"/>
+      <c r="AAX41" s="1"/>
+      <c r="AAY41" s="1"/>
+      <c r="AAZ41" s="1"/>
+      <c r="ABA41" s="1"/>
+      <c r="ABB41" s="1"/>
+      <c r="ABC41" s="1"/>
+      <c r="ABD41" s="1"/>
+      <c r="ABE41" s="1"/>
+      <c r="ABF41" s="1"/>
+      <c r="ABG41" s="1"/>
+      <c r="ABH41" s="1"/>
+      <c r="ABI41" s="1"/>
+      <c r="ABJ41" s="1"/>
+      <c r="ABK41" s="1"/>
+      <c r="ABL41" s="1"/>
+      <c r="ABM41" s="1"/>
+      <c r="ABN41" s="1"/>
+      <c r="ABO41" s="1"/>
+      <c r="ABP41" s="1"/>
+      <c r="ABQ41" s="1"/>
+      <c r="ABR41" s="1"/>
+      <c r="ABS41" s="1"/>
+      <c r="ABT41" s="1"/>
+      <c r="ABU41" s="1"/>
+      <c r="ABV41" s="1"/>
+      <c r="ABW41" s="1"/>
+      <c r="ABX41" s="1"/>
+      <c r="ABY41" s="1"/>
+      <c r="ABZ41" s="1"/>
+      <c r="ACA41" s="1"/>
+      <c r="ACB41" s="1"/>
+      <c r="ACC41" s="1"/>
+      <c r="ACD41" s="1"/>
+      <c r="ACE41" s="1"/>
+      <c r="ACF41" s="1"/>
+      <c r="ACG41" s="1"/>
+      <c r="ACH41" s="1"/>
+      <c r="ACI41" s="1"/>
+      <c r="ACJ41" s="1"/>
+      <c r="ACK41" s="1"/>
+      <c r="ACL41" s="1"/>
+      <c r="ACM41" s="1"/>
+      <c r="ACN41" s="1"/>
+      <c r="ACO41" s="1"/>
+      <c r="ACP41" s="1"/>
+      <c r="ACQ41" s="1"/>
+      <c r="ACR41" s="1"/>
+      <c r="ACS41" s="1"/>
+      <c r="ACT41" s="1"/>
+      <c r="ACU41" s="1"/>
+      <c r="ACV41" s="1"/>
+      <c r="ACW41" s="1"/>
+      <c r="ACX41" s="1"/>
+      <c r="ACY41" s="1"/>
+      <c r="ACZ41" s="1"/>
+      <c r="ADA41" s="1"/>
+      <c r="ADB41" s="1"/>
+      <c r="ADC41" s="1"/>
+      <c r="ADD41" s="1"/>
+      <c r="ADE41" s="1"/>
+      <c r="ADF41" s="1"/>
+      <c r="ADG41" s="1"/>
+      <c r="ADH41" s="1"/>
+      <c r="ADI41" s="1"/>
+      <c r="ADJ41" s="1"/>
+      <c r="ADK41" s="1"/>
+      <c r="ADL41" s="1"/>
+      <c r="ADM41" s="1"/>
+      <c r="ADN41" s="1"/>
+      <c r="ADO41" s="1"/>
+      <c r="ADP41" s="1"/>
+      <c r="ADQ41" s="1"/>
+      <c r="ADR41" s="1"/>
+      <c r="ADS41" s="1"/>
+      <c r="ADT41" s="1"/>
+      <c r="ADU41" s="1"/>
+      <c r="ADV41" s="1"/>
+      <c r="ADW41" s="1"/>
+      <c r="ADX41" s="1"/>
+      <c r="ADY41" s="1"/>
+      <c r="ADZ41" s="1"/>
+      <c r="AEA41" s="1"/>
+      <c r="AEB41" s="1"/>
+      <c r="AEC41" s="1"/>
+      <c r="AED41" s="1"/>
+      <c r="AEE41" s="1"/>
+      <c r="AEF41" s="1"/>
+      <c r="AEG41" s="1"/>
+      <c r="AEH41" s="1"/>
+      <c r="AEI41" s="1"/>
+      <c r="AEJ41" s="1"/>
+      <c r="AEK41" s="1"/>
+      <c r="AEL41" s="1"/>
+      <c r="AEM41" s="1"/>
+      <c r="AEN41" s="1"/>
+      <c r="AEO41" s="1"/>
+      <c r="AEP41" s="1"/>
+      <c r="AEQ41" s="1"/>
+      <c r="AER41" s="1"/>
+      <c r="AES41" s="1"/>
+      <c r="AET41" s="1"/>
+      <c r="AEU41" s="1"/>
+      <c r="AEV41" s="1"/>
+      <c r="AEW41" s="1"/>
+      <c r="AEX41" s="1"/>
+      <c r="AEY41" s="1"/>
+      <c r="AEZ41" s="1"/>
+      <c r="AFA41" s="1"/>
+      <c r="AFB41" s="1"/>
+      <c r="AFC41" s="1"/>
+      <c r="AFD41" s="1"/>
+      <c r="AFE41" s="1"/>
+      <c r="AFF41" s="1"/>
+      <c r="AFG41" s="1"/>
+      <c r="AFH41" s="1"/>
+      <c r="AFI41" s="1"/>
+      <c r="AFJ41" s="1"/>
+      <c r="AFK41" s="1"/>
+      <c r="AFL41" s="1"/>
+      <c r="AFM41" s="1"/>
+      <c r="AFN41" s="1"/>
+      <c r="AFO41" s="1"/>
+      <c r="AFP41" s="1"/>
+      <c r="AFQ41" s="1"/>
+      <c r="AFR41" s="1"/>
+      <c r="AFS41" s="1"/>
+      <c r="AFT41" s="1"/>
+      <c r="AFU41" s="1"/>
+      <c r="AFV41" s="1"/>
+      <c r="AFW41" s="1"/>
+      <c r="AFX41" s="1"/>
+      <c r="AFY41" s="1"/>
+      <c r="AFZ41" s="1"/>
+      <c r="AGA41" s="1"/>
+      <c r="AGB41" s="1"/>
+      <c r="AGC41" s="1"/>
+      <c r="AGD41" s="1"/>
+      <c r="AGE41" s="1"/>
+      <c r="AGF41" s="1"/>
+      <c r="AGG41" s="1"/>
+      <c r="AGH41" s="1"/>
+      <c r="AGI41" s="1"/>
+      <c r="AGJ41" s="1"/>
+      <c r="AGK41" s="1"/>
+      <c r="AGL41" s="1"/>
+      <c r="AGM41" s="1"/>
+      <c r="AGN41" s="1"/>
+      <c r="AGO41" s="1"/>
+      <c r="AGP41" s="1"/>
+      <c r="AGQ41" s="1"/>
+      <c r="AGR41" s="1"/>
+      <c r="AGS41" s="1"/>
+      <c r="AGT41" s="1"/>
+      <c r="AGU41" s="1"/>
+      <c r="AGV41" s="1"/>
+      <c r="AGW41" s="1"/>
+      <c r="AGX41" s="1"/>
+      <c r="AGY41" s="1"/>
+      <c r="AGZ41" s="1"/>
+      <c r="AHA41" s="1"/>
+      <c r="AHB41" s="1"/>
+      <c r="AHC41" s="1"/>
+      <c r="AHD41" s="1"/>
+      <c r="AHE41" s="1"/>
+      <c r="AHF41" s="1"/>
+      <c r="AHG41" s="1"/>
+      <c r="AHH41" s="1"/>
+      <c r="AHI41" s="1"/>
+      <c r="AHJ41" s="1"/>
+      <c r="AHK41" s="1"/>
+      <c r="AHL41" s="1"/>
+      <c r="AHM41" s="1"/>
+      <c r="AHN41" s="1"/>
+      <c r="AHO41" s="1"/>
+      <c r="AHP41" s="1"/>
+      <c r="AHQ41" s="1"/>
+      <c r="AHR41" s="1"/>
+      <c r="AHS41" s="1"/>
+      <c r="AHT41" s="1"/>
+      <c r="AHU41" s="1"/>
+      <c r="AHV41" s="1"/>
+      <c r="AHW41" s="1"/>
+      <c r="AHX41" s="1"/>
+      <c r="AHY41" s="1"/>
+      <c r="AHZ41" s="1"/>
+      <c r="AIA41" s="1"/>
+      <c r="AIB41" s="1"/>
+      <c r="AIC41" s="1"/>
+      <c r="AID41" s="1"/>
+      <c r="AIE41" s="1"/>
+      <c r="AIF41" s="1"/>
+      <c r="AIG41" s="1"/>
+      <c r="AIH41" s="1"/>
+      <c r="AII41" s="1"/>
+      <c r="AIJ41" s="1"/>
+      <c r="AIK41" s="1"/>
+      <c r="AIL41" s="1"/>
+      <c r="AIM41" s="1"/>
+      <c r="AIN41" s="1"/>
+      <c r="AIO41" s="1"/>
+      <c r="AIP41" s="1"/>
+      <c r="AIQ41" s="1"/>
+      <c r="AIR41" s="1"/>
+      <c r="AIS41" s="1"/>
+      <c r="AIT41" s="1"/>
+      <c r="AIU41" s="1"/>
+      <c r="AIV41" s="1"/>
+      <c r="AIW41" s="1"/>
+      <c r="AIX41" s="1"/>
+      <c r="AIY41" s="1"/>
+      <c r="AIZ41" s="1"/>
+      <c r="AJA41" s="1"/>
+      <c r="AJB41" s="1"/>
+      <c r="AJC41" s="1"/>
+      <c r="AJD41" s="1"/>
+      <c r="AJE41" s="1"/>
+      <c r="AJF41" s="1"/>
+      <c r="AJG41" s="1"/>
+      <c r="AJH41" s="1"/>
+      <c r="AJI41" s="1"/>
+      <c r="AJJ41" s="1"/>
+      <c r="AJK41" s="1"/>
+      <c r="AJL41" s="1"/>
+      <c r="AJM41" s="1"/>
+      <c r="AJN41" s="1"/>
+      <c r="AJO41" s="1"/>
+      <c r="AJP41" s="1"/>
+      <c r="AJQ41" s="1"/>
+      <c r="AJR41" s="1"/>
+      <c r="AJS41" s="1"/>
+      <c r="AJT41" s="1"/>
+      <c r="AJU41" s="1"/>
+      <c r="AJV41" s="1"/>
+      <c r="AJW41" s="1"/>
+      <c r="AJX41" s="1"/>
+      <c r="AJY41" s="1"/>
+      <c r="AJZ41" s="1"/>
+      <c r="AKA41" s="1"/>
+      <c r="AKB41" s="1"/>
+      <c r="AKC41" s="1"/>
+      <c r="AKD41" s="1"/>
+      <c r="AKE41" s="1"/>
+      <c r="AKF41" s="1"/>
+      <c r="AKG41" s="1"/>
+      <c r="AKH41" s="1"/>
+      <c r="AKI41" s="1"/>
+      <c r="AKJ41" s="1"/>
+      <c r="AKK41" s="1"/>
+      <c r="AKL41" s="1"/>
+      <c r="AKM41" s="1"/>
+      <c r="AKN41" s="1"/>
+      <c r="AKO41" s="1"/>
+      <c r="AKP41" s="1"/>
+      <c r="AKQ41" s="1"/>
+      <c r="AKR41" s="1"/>
+      <c r="AKS41" s="1"/>
+      <c r="AKT41" s="1"/>
+      <c r="AKU41" s="1"/>
+      <c r="AKV41" s="1"/>
+      <c r="AKW41" s="1"/>
+      <c r="AKX41" s="1"/>
+      <c r="AKY41" s="1"/>
+      <c r="AKZ41" s="1"/>
+      <c r="ALA41" s="1"/>
+      <c r="ALB41" s="1"/>
+      <c r="ALC41" s="1"/>
+      <c r="ALD41" s="1"/>
+      <c r="ALE41" s="1"/>
+      <c r="ALF41" s="1"/>
+      <c r="ALG41" s="1"/>
+      <c r="ALH41" s="1"/>
+      <c r="ALI41" s="1"/>
+      <c r="ALJ41" s="1"/>
+      <c r="ALK41" s="1"/>
+      <c r="ALL41" s="1"/>
+      <c r="ALM41" s="1"/>
+      <c r="ALN41" s="1"/>
+      <c r="ALO41" s="1"/>
+      <c r="ALP41" s="1"/>
+      <c r="ALQ41" s="1"/>
+      <c r="ALR41" s="1"/>
+      <c r="ALS41" s="1"/>
+      <c r="ALT41" s="1"/>
+      <c r="ALU41" s="1"/>
+      <c r="ALV41" s="1"/>
+      <c r="ALW41" s="1"/>
+      <c r="ALX41" s="1"/>
+      <c r="ALY41" s="1"/>
+      <c r="ALZ41" s="1"/>
+      <c r="AMA41" s="1"/>
+      <c r="AMB41" s="1"/>
+      <c r="AMC41" s="1"/>
+      <c r="AMD41" s="1"/>
+      <c r="AME41" s="1"/>
+      <c r="AMF41" s="1"/>
+      <c r="AMG41" s="1"/>
+      <c r="AMH41" s="1"/>
+      <c r="AMI41" s="1"/>
+      <c r="AMJ41" s="1"/>
+      <c r="AMK41" s="1"/>
     </row>
-    <row r="42" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A42" s="30"/>
-      <c r="B42" s="31"/>
+    <row r="42" spans="1:1025" s="10" customFormat="1" ht="16.5">
+      <c r="A42" s="16"/>
+      <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
@@ -59716,9 +62316,9 @@
       <c r="S42" s="31"/>
       <c r="T42" s="49"/>
     </row>
-    <row r="43" s="10" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A43" s="30"/>
-      <c r="B43" s="31"/>
+    <row r="43" spans="1:1025" s="10" customFormat="1" ht="16.5">
+      <c r="A43" s="16"/>
+      <c r="B43" s="29"/>
       <c r="C43" s="30"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
@@ -59738,7 +62338,7 @@
       <c r="S43" s="31"/>
       <c r="T43" s="49"/>
     </row>
-    <row r="44" ht="16.5" spans="1:19">
+    <row r="44" spans="1:1025" ht="16.5">
       <c r="A44" s="33"/>
       <c r="B44" s="34"/>
       <c r="C44" s="33"/>
@@ -59759,7 +62359,7 @@
       <c r="R44" s="33"/>
       <c r="S44" s="34"/>
     </row>
-    <row r="45" ht="16.5" spans="1:19">
+    <row r="45" spans="1:1025" ht="16.5">
       <c r="A45" s="33"/>
       <c r="B45" s="34"/>
       <c r="C45" s="33"/>
@@ -59780,7 +62380,7 @@
       <c r="R45" s="33"/>
       <c r="S45" s="34"/>
     </row>
-    <row r="46" ht="16.5" spans="1:19">
+    <row r="46" spans="1:1025" ht="16.5">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="33"/>
@@ -59801,7 +62401,7 @@
       <c r="R46" s="33"/>
       <c r="S46" s="34"/>
     </row>
-    <row r="47" ht="16.5" spans="1:19">
+    <row r="47" spans="1:1025" ht="16.5">
       <c r="A47" s="33"/>
       <c r="B47" s="34"/>
       <c r="C47" s="33"/>
@@ -59822,7 +62422,7 @@
       <c r="R47" s="33"/>
       <c r="S47" s="34"/>
     </row>
-    <row r="48" ht="16.5" spans="1:19">
+    <row r="48" spans="1:1025" ht="16.5">
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
@@ -59843,7 +62443,7 @@
       <c r="R48" s="33"/>
       <c r="S48" s="34"/>
     </row>
-    <row r="49" ht="16.5" spans="1:19">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="33"/>
       <c r="B49" s="34"/>
       <c r="C49" s="33"/>
@@ -59864,7 +62464,7 @@
       <c r="R49" s="33"/>
       <c r="S49" s="34"/>
     </row>
-    <row r="50" ht="16.5" spans="1:19">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
@@ -59885,7 +62485,7 @@
       <c r="R50" s="33"/>
       <c r="S50" s="34"/>
     </row>
-    <row r="51" ht="16.5" spans="1:19">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="33"/>
       <c r="B51" s="34"/>
       <c r="C51" s="33"/>
@@ -59906,7 +62506,7 @@
       <c r="R51" s="33"/>
       <c r="S51" s="34"/>
     </row>
-    <row r="52" ht="16.5" spans="1:19">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="33"/>
       <c r="B52" s="34"/>
       <c r="C52" s="33"/>
@@ -59927,7 +62527,7 @@
       <c r="R52" s="33"/>
       <c r="S52" s="34"/>
     </row>
-    <row r="53" ht="16.5" spans="1:19">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="33"/>
       <c r="B53" s="34"/>
       <c r="C53" s="33"/>
@@ -59948,7 +62548,7 @@
       <c r="R53" s="33"/>
       <c r="S53" s="34"/>
     </row>
-    <row r="54" ht="16.5" spans="1:19">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="33"/>
       <c r="B54" s="34"/>
       <c r="C54" s="33"/>
@@ -59969,7 +62569,7 @@
       <c r="R54" s="33"/>
       <c r="S54" s="34"/>
     </row>
-    <row r="55" ht="16.5" spans="1:19">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="33"/>
       <c r="B55" s="34"/>
       <c r="C55" s="33"/>
@@ -59990,7 +62590,7 @@
       <c r="R55" s="33"/>
       <c r="S55" s="34"/>
     </row>
-    <row r="56" ht="16.5" spans="1:19">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
@@ -60011,7 +62611,7 @@
       <c r="R56" s="33"/>
       <c r="S56" s="34"/>
     </row>
-    <row r="57" ht="16.5" spans="1:19">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="33"/>
       <c r="B57" s="34"/>
       <c r="C57" s="33"/>
@@ -60032,7 +62632,7 @@
       <c r="R57" s="33"/>
       <c r="S57" s="34"/>
     </row>
-    <row r="58" ht="16.5" spans="1:19">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="33"/>
@@ -60053,7 +62653,7 @@
       <c r="R58" s="33"/>
       <c r="S58" s="34"/>
     </row>
-    <row r="59" ht="16.5" spans="1:19">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="33"/>
       <c r="B59" s="34"/>
       <c r="C59" s="33"/>
@@ -60074,7 +62674,7 @@
       <c r="R59" s="33"/>
       <c r="S59" s="34"/>
     </row>
-    <row r="60" ht="16.5" spans="1:19">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="33"/>
       <c r="B60" s="34"/>
       <c r="C60" s="33"/>
@@ -60095,7 +62695,7 @@
       <c r="R60" s="33"/>
       <c r="S60" s="34"/>
     </row>
-    <row r="61" ht="16.5" spans="1:19">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="33"/>
       <c r="B61" s="34"/>
       <c r="C61" s="33"/>
@@ -60116,7 +62716,7 @@
       <c r="R61" s="33"/>
       <c r="S61" s="34"/>
     </row>
-    <row r="62" ht="16.5" spans="1:19">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="33"/>
       <c r="B62" s="34"/>
       <c r="C62" s="33"/>
@@ -60137,7 +62737,7 @@
       <c r="R62" s="33"/>
       <c r="S62" s="34"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="33"/>
       <c r="B63" s="34"/>
       <c r="C63" s="33"/>
@@ -60158,7 +62758,7 @@
       <c r="R63" s="33"/>
       <c r="S63" s="34"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
@@ -60179,7 +62779,7 @@
       <c r="R64" s="33"/>
       <c r="S64" s="34"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="33"/>
       <c r="B65" s="34"/>
       <c r="C65" s="33"/>
@@ -60200,7 +62800,7 @@
       <c r="R65" s="33"/>
       <c r="S65" s="34"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="33"/>
@@ -60221,7 +62821,7 @@
       <c r="R66" s="33"/>
       <c r="S66" s="34"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="33"/>
       <c r="B67" s="34"/>
       <c r="C67" s="33"/>
@@ -60242,7 +62842,7 @@
       <c r="R67" s="33"/>
       <c r="S67" s="34"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="33"/>
       <c r="B68" s="34"/>
       <c r="C68" s="33"/>
@@ -60263,7 +62863,7 @@
       <c r="R68" s="33"/>
       <c r="S68" s="34"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="33"/>
       <c r="B69" s="34"/>
       <c r="C69" s="33"/>
@@ -60284,7 +62884,7 @@
       <c r="R69" s="33"/>
       <c r="S69" s="34"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="33"/>
       <c r="B70" s="34"/>
       <c r="C70" s="33"/>
@@ -60305,7 +62905,7 @@
       <c r="R70" s="33"/>
       <c r="S70" s="34"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="33"/>
       <c r="B71" s="34"/>
       <c r="C71" s="33"/>
@@ -60326,7 +62926,7 @@
       <c r="R71" s="33"/>
       <c r="S71" s="34"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
@@ -60347,7 +62947,7 @@
       <c r="R72" s="33"/>
       <c r="S72" s="34"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="33"/>
       <c r="B73" s="34"/>
       <c r="C73" s="33"/>
@@ -60368,7 +62968,7 @@
       <c r="R73" s="33"/>
       <c r="S73" s="34"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
@@ -60389,7 +62989,7 @@
       <c r="R74" s="33"/>
       <c r="S74" s="34"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="33"/>
       <c r="B75" s="34"/>
       <c r="C75" s="33"/>
@@ -60410,7 +63010,7 @@
       <c r="R75" s="33"/>
       <c r="S75" s="34"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="33"/>
       <c r="B76" s="34"/>
       <c r="C76" s="33"/>
@@ -60431,7 +63031,7 @@
       <c r="R76" s="33"/>
       <c r="S76" s="34"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="33"/>
       <c r="B77" s="34"/>
       <c r="C77" s="33"/>
@@ -60452,7 +63052,7 @@
       <c r="R77" s="33"/>
       <c r="S77" s="34"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="33"/>
       <c r="B78" s="34"/>
       <c r="C78" s="33"/>
@@ -60473,7 +63073,7 @@
       <c r="R78" s="33"/>
       <c r="S78" s="34"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="33"/>
       <c r="B79" s="34"/>
       <c r="C79" s="33"/>
@@ -60494,7 +63094,7 @@
       <c r="R79" s="33"/>
       <c r="S79" s="34"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="33"/>
@@ -60515,7 +63115,7 @@
       <c r="R80" s="33"/>
       <c r="S80" s="34"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="33"/>
       <c r="B81" s="34"/>
       <c r="C81" s="33"/>
@@ -60536,7 +63136,7 @@
       <c r="R81" s="33"/>
       <c r="S81" s="34"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
       <c r="C82" s="33"/>
@@ -60557,7 +63157,7 @@
       <c r="R82" s="33"/>
       <c r="S82" s="34"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="33"/>
       <c r="B83" s="34"/>
       <c r="C83" s="33"/>
@@ -60578,7 +63178,7 @@
       <c r="R83" s="33"/>
       <c r="S83" s="34"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="33"/>
       <c r="B84" s="34"/>
       <c r="C84" s="33"/>
@@ -60599,7 +63199,7 @@
       <c r="R84" s="33"/>
       <c r="S84" s="34"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="33"/>
       <c r="B85" s="34"/>
       <c r="C85" s="33"/>
@@ -60620,7 +63220,7 @@
       <c r="R85" s="33"/>
       <c r="S85" s="34"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="33"/>
       <c r="B86" s="34"/>
       <c r="C86" s="33"/>
@@ -60641,7 +63241,7 @@
       <c r="R86" s="33"/>
       <c r="S86" s="34"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="33"/>
       <c r="B87" s="34"/>
       <c r="C87" s="33"/>
@@ -60662,7 +63262,7 @@
       <c r="R87" s="33"/>
       <c r="S87" s="34"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="33"/>
@@ -60683,7 +63283,7 @@
       <c r="R88" s="33"/>
       <c r="S88" s="34"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="33"/>
       <c r="B89" s="34"/>
       <c r="C89" s="33"/>
@@ -60704,7 +63304,7 @@
       <c r="R89" s="33"/>
       <c r="S89" s="34"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="C90" s="33"/>
@@ -60725,7 +63325,7 @@
       <c r="R90" s="33"/>
       <c r="S90" s="34"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="33"/>
       <c r="B91" s="34"/>
       <c r="C91" s="33"/>
@@ -60746,7 +63346,7 @@
       <c r="R91" s="33"/>
       <c r="S91" s="34"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="33"/>
       <c r="B92" s="34"/>
       <c r="C92" s="33"/>
@@ -60767,7 +63367,7 @@
       <c r="R92" s="33"/>
       <c r="S92" s="34"/>
     </row>
-    <row r="93" ht="16.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="33"/>
       <c r="B93" s="34"/>
       <c r="C93" s="33"/>
@@ -60788,7 +63388,7 @@
       <c r="R93" s="33"/>
       <c r="S93" s="34"/>
     </row>
-    <row r="94" ht="16.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="33"/>
       <c r="B94" s="34"/>
       <c r="C94" s="33"/>
@@ -60809,7 +63409,7 @@
       <c r="R94" s="33"/>
       <c r="S94" s="34"/>
     </row>
-    <row r="95" ht="16.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="33"/>
       <c r="B95" s="34"/>
       <c r="C95" s="33"/>
@@ -60830,7 +63430,7 @@
       <c r="R95" s="33"/>
       <c r="S95" s="34"/>
     </row>
-    <row r="96" ht="16.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="33"/>
       <c r="B96" s="34"/>
       <c r="C96" s="33"/>
@@ -60851,7 +63451,7 @@
       <c r="R96" s="33"/>
       <c r="S96" s="34"/>
     </row>
-    <row r="97" ht="16.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="33"/>
       <c r="B97" s="34"/>
       <c r="C97" s="33"/>
@@ -60872,7 +63472,7 @@
       <c r="R97" s="33"/>
       <c r="S97" s="34"/>
     </row>
-    <row r="98" ht="16.5" spans="1:19">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="33"/>
       <c r="B98" s="34"/>
       <c r="C98" s="33"/>
@@ -60893,7 +63493,7 @@
       <c r="R98" s="33"/>
       <c r="S98" s="34"/>
     </row>
-    <row r="99" ht="16.5" spans="1:19">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="33"/>
       <c r="B99" s="34"/>
       <c r="C99" s="33"/>
@@ -60914,7 +63514,7 @@
       <c r="R99" s="33"/>
       <c r="S99" s="34"/>
     </row>
-    <row r="100" ht="16.5" spans="1:19">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="33"/>
       <c r="B100" s="34"/>
       <c r="C100" s="33"/>
@@ -60935,7 +63535,7 @@
       <c r="R100" s="33"/>
       <c r="S100" s="34"/>
     </row>
-    <row r="101" ht="16.5" spans="1:19">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="33"/>
       <c r="B101" s="34"/>
       <c r="C101" s="33"/>
@@ -60956,7 +63556,7 @@
       <c r="R101" s="33"/>
       <c r="S101" s="34"/>
     </row>
-    <row r="102" ht="16.5" spans="1:19">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="33"/>
       <c r="B102" s="34"/>
       <c r="C102" s="33"/>
@@ -60977,7 +63577,7 @@
       <c r="R102" s="33"/>
       <c r="S102" s="34"/>
     </row>
-    <row r="103" ht="16.5" spans="1:19">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="33"/>
       <c r="B103" s="34"/>
       <c r="C103" s="33"/>
@@ -60998,7 +63598,7 @@
       <c r="R103" s="33"/>
       <c r="S103" s="34"/>
     </row>
-    <row r="104" ht="16.5" spans="1:19">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
@@ -62898,21 +65498,21 @@
       <c r="S199" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -62949,7 +65549,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -63130,13 +65730,13 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>